--- a/55班スプリントバックログ.xlsx
+++ b/55班スプリントバックログ.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kosugi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3888" yWindow="3048" windowWidth="19236" windowHeight="12120" tabRatio="658" activeTab="2"/>
+    <workbookView xWindow="3888" yWindow="3048" windowWidth="19236" windowHeight="12120" tabRatio="658" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -2283,6 +2283,48 @@
     <xf numFmtId="49" fontId="17" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2338,48 +2380,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2387,49 +2387,7 @@
     <cellStyle name="標準_チーム編成" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="123">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="108">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2574,27 +2532,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -3149,48 +3086,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -3486,7 +3381,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,7 +3930,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4337,7 +4232,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7679,19 +7574,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="101"/>
+      <c r="E2" s="113"/>
     </row>
     <row r="3" spans="1:5" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:5" s="46" customFormat="1" ht="13.8" thickBot="1">
@@ -7710,7 +7605,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="114" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="76"/>
@@ -7719,21 +7614,21 @@
       <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="103"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="70"/>
       <c r="C6" s="50"/>
       <c r="D6" s="51"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="103"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="70"/>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="103"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="71">
         <v>43025</v>
       </c>
@@ -7742,7 +7637,7 @@
       <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="103"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="72">
         <f>B8</f>
         <v>43025</v>
@@ -7752,49 +7647,49 @@
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="103"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="72"/>
       <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="103"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="71"/>
       <c r="C11" s="50"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="103"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="69"/>
       <c r="C12" s="55"/>
       <c r="D12" s="51"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="103"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="68"/>
       <c r="C13" s="53"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="103"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="70"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="103"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="71"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="103"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="71">
         <v>43028</v>
       </c>
@@ -7803,7 +7698,7 @@
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="103"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="72">
         <f>B16</f>
         <v>43028</v>
@@ -7813,49 +7708,49 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="103"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="72"/>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="103"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="71"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="103"/>
+      <c r="A20" s="115"/>
       <c r="B20" s="69"/>
       <c r="C20" s="55"/>
       <c r="D20" s="51"/>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="103"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="68"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="103"/>
+      <c r="A22" s="115"/>
       <c r="B22" s="70"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="103"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="70"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="103"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="71">
         <v>43032</v>
       </c>
@@ -7864,7 +7759,7 @@
       <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="103"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="72">
         <f>B24</f>
         <v>43032</v>
@@ -7874,49 +7769,49 @@
       <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="103"/>
+      <c r="A26" s="115"/>
       <c r="B26" s="72"/>
       <c r="C26" s="50"/>
       <c r="D26" s="51"/>
       <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="103"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="71"/>
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="103"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="70"/>
       <c r="C28" s="55"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="103"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="68"/>
       <c r="C29" s="78"/>
       <c r="D29" s="51"/>
       <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="103"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="70"/>
       <c r="C30" s="75"/>
       <c r="D30" s="51"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="103"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="70"/>
       <c r="C31" s="50"/>
       <c r="D31" s="51"/>
       <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="103"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="71">
         <v>43035</v>
       </c>
@@ -7925,7 +7820,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="103"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="72">
         <f>B32</f>
         <v>43035</v>
@@ -7935,49 +7830,49 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="103"/>
+      <c r="A34" s="115"/>
       <c r="B34" s="72"/>
       <c r="C34" s="50"/>
       <c r="D34" s="51"/>
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="103"/>
+      <c r="A35" s="115"/>
       <c r="B35" s="71"/>
       <c r="C35" s="50"/>
       <c r="D35" s="51"/>
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="103"/>
+      <c r="A36" s="115"/>
       <c r="B36" s="69"/>
       <c r="C36" s="55"/>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="103"/>
+      <c r="A37" s="115"/>
       <c r="B37" s="68"/>
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="103"/>
+      <c r="A38" s="115"/>
       <c r="B38" s="70"/>
       <c r="C38" s="50"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="103"/>
+      <c r="A39" s="115"/>
       <c r="B39" s="70"/>
       <c r="C39" s="50"/>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="103"/>
+      <c r="A40" s="115"/>
       <c r="B40" s="71">
         <v>43039</v>
       </c>
@@ -7986,7 +7881,7 @@
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="103"/>
+      <c r="A41" s="115"/>
       <c r="B41" s="72">
         <f>B40</f>
         <v>43039</v>
@@ -7996,28 +7891,28 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="103"/>
+      <c r="A42" s="115"/>
       <c r="B42" s="72"/>
       <c r="C42" s="50"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="103"/>
+      <c r="A43" s="115"/>
       <c r="B43" s="71"/>
       <c r="C43" s="50"/>
       <c r="D43" s="51"/>
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="103"/>
+      <c r="A44" s="115"/>
       <c r="B44" s="69"/>
       <c r="C44" s="50"/>
       <c r="D44" s="51"/>
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="103"/>
+      <c r="A45" s="115"/>
       <c r="B45" s="87" t="s">
         <v>43</v>
       </c>
@@ -8026,21 +7921,21 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="103"/>
+      <c r="A46" s="115"/>
       <c r="B46" s="70"/>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
       <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="103"/>
+      <c r="A47" s="115"/>
       <c r="B47" s="70"/>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
       <c r="E47" s="54"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="103"/>
+      <c r="A48" s="115"/>
       <c r="B48" s="71">
         <v>43042</v>
       </c>
@@ -8049,7 +7944,7 @@
       <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="103"/>
+      <c r="A49" s="115"/>
       <c r="B49" s="72">
         <f>B48</f>
         <v>43042</v>
@@ -8059,28 +7954,28 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="103"/>
+      <c r="A50" s="115"/>
       <c r="B50" s="72"/>
       <c r="C50" s="50"/>
       <c r="D50" s="56"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="103"/>
+      <c r="A51" s="115"/>
       <c r="B51" s="71"/>
       <c r="C51" s="50"/>
       <c r="D51" s="56"/>
       <c r="E51" s="63"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="103"/>
+      <c r="A52" s="115"/>
       <c r="B52" s="69"/>
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
       <c r="E52" s="57"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="103"/>
+      <c r="A53" s="115"/>
       <c r="B53" s="80"/>
       <c r="C53" s="78" t="s">
         <v>41</v>
@@ -8089,7 +7984,7 @@
       <c r="E53" s="57"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="103"/>
+      <c r="A54" s="115"/>
       <c r="B54" s="81"/>
       <c r="C54" s="75" t="s">
         <v>40</v>
@@ -8098,14 +7993,14 @@
       <c r="E54" s="57"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="103"/>
+      <c r="A55" s="115"/>
       <c r="B55" s="81"/>
       <c r="C55" s="50"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="103"/>
+      <c r="A56" s="115"/>
       <c r="B56" s="82">
         <v>43046</v>
       </c>
@@ -8114,7 +8009,7 @@
       <c r="E56" s="57"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="103"/>
+      <c r="A57" s="115"/>
       <c r="B57" s="83">
         <f>B56</f>
         <v>43046</v>
@@ -8124,28 +8019,28 @@
       <c r="E57" s="57"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="103"/>
+      <c r="A58" s="115"/>
       <c r="B58" s="83"/>
       <c r="C58" s="50"/>
       <c r="D58" s="56"/>
       <c r="E58" s="57"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="103"/>
+      <c r="A59" s="115"/>
       <c r="B59" s="82"/>
       <c r="C59" s="50"/>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="103"/>
+      <c r="A60" s="115"/>
       <c r="B60" s="84"/>
       <c r="C60" s="55"/>
       <c r="D60" s="56"/>
       <c r="E60" s="57"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="103"/>
+      <c r="A61" s="115"/>
       <c r="B61" s="80"/>
       <c r="C61" s="78" t="s">
         <v>41</v>
@@ -8154,7 +8049,7 @@
       <c r="E61" s="57"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="103"/>
+      <c r="A62" s="115"/>
       <c r="B62" s="81"/>
       <c r="C62" s="75" t="s">
         <v>40</v>
@@ -8163,14 +8058,14 @@
       <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="103"/>
+      <c r="A63" s="115"/>
       <c r="B63" s="81"/>
       <c r="C63" s="50"/>
       <c r="D63" s="56"/>
       <c r="E63" s="57"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="103"/>
+      <c r="A64" s="115"/>
       <c r="B64" s="82">
         <v>43049</v>
       </c>
@@ -8179,7 +8074,7 @@
       <c r="E64" s="57"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="103"/>
+      <c r="A65" s="115"/>
       <c r="B65" s="83">
         <f>B64</f>
         <v>43049</v>
@@ -8189,28 +8084,28 @@
       <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="103"/>
+      <c r="A66" s="115"/>
       <c r="B66" s="83"/>
       <c r="C66" s="50"/>
       <c r="D66" s="56"/>
       <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="103"/>
+      <c r="A67" s="115"/>
       <c r="B67" s="82"/>
       <c r="C67" s="50"/>
       <c r="D67" s="56"/>
       <c r="E67" s="57"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A68" s="103"/>
+      <c r="A68" s="115"/>
       <c r="B68" s="84"/>
       <c r="C68" s="55"/>
       <c r="D68" s="56"/>
       <c r="E68" s="57"/>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="116" t="s">
         <v>45</v>
       </c>
       <c r="B69" s="76"/>
@@ -8219,21 +8114,21 @@
       <c r="E69" s="49"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="105"/>
+      <c r="A70" s="117"/>
       <c r="B70" s="70"/>
       <c r="C70" s="50"/>
       <c r="D70" s="89"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="105"/>
+      <c r="A71" s="117"/>
       <c r="B71" s="70"/>
       <c r="C71" s="50"/>
       <c r="D71" s="89"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="105"/>
+      <c r="A72" s="117"/>
       <c r="B72" s="71">
         <v>43053</v>
       </c>
@@ -8242,7 +8137,7 @@
       <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="105"/>
+      <c r="A73" s="117"/>
       <c r="B73" s="72">
         <f>B72</f>
         <v>43053</v>
@@ -8252,49 +8147,49 @@
       <c r="E73" s="57"/>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="105"/>
+      <c r="A74" s="117"/>
       <c r="B74" s="72"/>
       <c r="C74" s="50"/>
       <c r="D74" s="90"/>
       <c r="E74" s="57"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="105"/>
+      <c r="A75" s="117"/>
       <c r="B75" s="71"/>
       <c r="C75" s="50"/>
       <c r="D75" s="90"/>
       <c r="E75" s="57"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="105"/>
+      <c r="A76" s="117"/>
       <c r="B76" s="69"/>
       <c r="C76" s="55"/>
       <c r="D76" s="90"/>
       <c r="E76" s="57"/>
     </row>
     <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="105"/>
+      <c r="A77" s="117"/>
       <c r="B77" s="70"/>
       <c r="C77" s="78"/>
       <c r="D77" s="89"/>
       <c r="E77" s="52"/>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="105"/>
+      <c r="A78" s="117"/>
       <c r="B78" s="70"/>
       <c r="C78" s="75"/>
       <c r="D78" s="91"/>
       <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="105"/>
+      <c r="A79" s="117"/>
       <c r="B79" s="70"/>
       <c r="C79" s="73"/>
       <c r="D79" s="91"/>
       <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="105"/>
+      <c r="A80" s="117"/>
       <c r="B80" s="71">
         <v>43056</v>
       </c>
@@ -8303,7 +8198,7 @@
       <c r="E80" s="52"/>
     </row>
     <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="105"/>
+      <c r="A81" s="117"/>
       <c r="B81" s="72">
         <f>B80</f>
         <v>43056</v>
@@ -8313,49 +8208,49 @@
       <c r="E81" s="52"/>
     </row>
     <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="105"/>
+      <c r="A82" s="117"/>
       <c r="B82" s="72"/>
       <c r="C82" s="50"/>
       <c r="D82" s="89"/>
       <c r="E82" s="52"/>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="105"/>
+      <c r="A83" s="117"/>
       <c r="B83" s="71"/>
       <c r="C83" s="50"/>
       <c r="D83" s="89"/>
       <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="105"/>
+      <c r="A84" s="117"/>
       <c r="B84" s="70"/>
       <c r="C84" s="55"/>
       <c r="D84" s="90"/>
       <c r="E84" s="57"/>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="105"/>
+      <c r="A85" s="117"/>
       <c r="B85" s="68"/>
       <c r="C85" s="73"/>
       <c r="D85" s="89"/>
       <c r="E85" s="52"/>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="105"/>
+      <c r="A86" s="117"/>
       <c r="B86" s="70"/>
       <c r="C86" s="73"/>
       <c r="D86" s="91"/>
       <c r="E86" s="54"/>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="105"/>
+      <c r="A87" s="117"/>
       <c r="B87" s="70"/>
       <c r="C87" s="73"/>
       <c r="D87" s="91"/>
       <c r="E87" s="54"/>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="105"/>
+      <c r="A88" s="117"/>
       <c r="B88" s="71">
         <v>43060</v>
       </c>
@@ -8364,7 +8259,7 @@
       <c r="E88" s="52"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="105"/>
+      <c r="A89" s="117"/>
       <c r="B89" s="72">
         <f>B88</f>
         <v>43060</v>
@@ -8374,49 +8269,49 @@
       <c r="E89" s="52"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="105"/>
+      <c r="A90" s="117"/>
       <c r="B90" s="72"/>
       <c r="C90" s="50"/>
       <c r="D90" s="89"/>
       <c r="E90" s="52"/>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="105"/>
+      <c r="A91" s="117"/>
       <c r="B91" s="71"/>
       <c r="C91" s="50"/>
       <c r="D91" s="89"/>
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="105"/>
+      <c r="A92" s="117"/>
       <c r="B92" s="69"/>
       <c r="C92" s="55"/>
       <c r="D92" s="89"/>
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="105"/>
+      <c r="A93" s="117"/>
       <c r="B93" s="70"/>
       <c r="C93" s="73"/>
       <c r="D93" s="89"/>
       <c r="E93" s="54"/>
     </row>
     <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="105"/>
+      <c r="A94" s="117"/>
       <c r="B94" s="70"/>
       <c r="C94" s="75"/>
       <c r="D94" s="89"/>
       <c r="E94" s="54"/>
     </row>
     <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="105"/>
+      <c r="A95" s="117"/>
       <c r="B95" s="70"/>
       <c r="C95" s="75"/>
       <c r="D95" s="89"/>
       <c r="E95" s="54"/>
     </row>
     <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="105"/>
+      <c r="A96" s="117"/>
       <c r="B96" s="71">
         <v>43063</v>
       </c>
@@ -8425,7 +8320,7 @@
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="105"/>
+      <c r="A97" s="117"/>
       <c r="B97" s="72">
         <f>B96</f>
         <v>43063</v>
@@ -8435,49 +8330,49 @@
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="105"/>
+      <c r="A98" s="117"/>
       <c r="B98" s="72"/>
       <c r="C98" s="50"/>
       <c r="D98" s="89"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="105"/>
+      <c r="A99" s="117"/>
       <c r="B99" s="71"/>
       <c r="C99" s="50"/>
       <c r="D99" s="89"/>
       <c r="E99" s="52"/>
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="105"/>
+      <c r="A100" s="117"/>
       <c r="B100" s="69"/>
       <c r="C100" s="55"/>
       <c r="D100" s="89"/>
       <c r="E100" s="52"/>
     </row>
     <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="105"/>
+      <c r="A101" s="117"/>
       <c r="B101" s="70"/>
       <c r="C101" s="78"/>
       <c r="D101" s="89"/>
       <c r="E101" s="54"/>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="105"/>
+      <c r="A102" s="117"/>
       <c r="B102" s="70"/>
       <c r="C102" s="75"/>
       <c r="D102" s="89"/>
       <c r="E102" s="52"/>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="105"/>
+      <c r="A103" s="117"/>
       <c r="B103" s="70"/>
       <c r="C103" s="75"/>
       <c r="D103" s="89"/>
       <c r="E103" s="52"/>
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="105"/>
+      <c r="A104" s="117"/>
       <c r="B104" s="71">
         <v>43067</v>
       </c>
@@ -8486,7 +8381,7 @@
       <c r="E104" s="52"/>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="105"/>
+      <c r="A105" s="117"/>
       <c r="B105" s="72">
         <f>B104</f>
         <v>43067</v>
@@ -8496,49 +8391,49 @@
       <c r="E105" s="52"/>
     </row>
     <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="105"/>
+      <c r="A106" s="117"/>
       <c r="B106" s="72"/>
       <c r="C106" s="50"/>
       <c r="D106" s="89"/>
       <c r="E106" s="52"/>
     </row>
     <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="105"/>
+      <c r="A107" s="117"/>
       <c r="B107" s="71"/>
       <c r="C107" s="50"/>
       <c r="D107" s="89"/>
       <c r="E107" s="52"/>
     </row>
     <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="105"/>
+      <c r="A108" s="117"/>
       <c r="B108" s="69"/>
       <c r="C108" s="55"/>
       <c r="D108" s="51"/>
       <c r="E108" s="52"/>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="105"/>
+      <c r="A109" s="117"/>
       <c r="B109" s="70"/>
       <c r="C109" s="73"/>
       <c r="D109" s="91"/>
       <c r="E109" s="54"/>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="105"/>
+      <c r="A110" s="117"/>
       <c r="B110" s="70"/>
       <c r="C110" s="75"/>
       <c r="D110" s="89"/>
       <c r="E110" s="54"/>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="105"/>
+      <c r="A111" s="117"/>
       <c r="B111" s="70"/>
       <c r="C111" s="75"/>
       <c r="D111" s="89"/>
       <c r="E111" s="54"/>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="105"/>
+      <c r="A112" s="117"/>
       <c r="B112" s="71">
         <v>43070</v>
       </c>
@@ -8547,7 +8442,7 @@
       <c r="E112" s="52"/>
     </row>
     <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="105"/>
+      <c r="A113" s="117"/>
       <c r="B113" s="72">
         <f>B112</f>
         <v>43070</v>
@@ -8557,49 +8452,49 @@
       <c r="E113" s="52"/>
     </row>
     <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="105"/>
+      <c r="A114" s="117"/>
       <c r="B114" s="72"/>
       <c r="C114" s="50"/>
       <c r="D114" s="89"/>
       <c r="E114" s="52"/>
     </row>
     <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="105"/>
+      <c r="A115" s="117"/>
       <c r="B115" s="71"/>
       <c r="C115" s="50"/>
       <c r="D115" s="89"/>
       <c r="E115" s="52"/>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="105"/>
+      <c r="A116" s="117"/>
       <c r="B116" s="69"/>
       <c r="C116" s="55"/>
       <c r="D116" s="89"/>
       <c r="E116" s="52"/>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="105"/>
+      <c r="A117" s="117"/>
       <c r="B117" s="70"/>
       <c r="C117" s="73"/>
       <c r="D117" s="89"/>
       <c r="E117" s="52"/>
     </row>
     <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="105"/>
+      <c r="A118" s="117"/>
       <c r="B118" s="70"/>
       <c r="C118" s="75"/>
       <c r="D118" s="89"/>
       <c r="E118" s="52"/>
     </row>
     <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="105"/>
+      <c r="A119" s="117"/>
       <c r="B119" s="70"/>
       <c r="C119" s="75"/>
       <c r="D119" s="89"/>
       <c r="E119" s="52"/>
     </row>
     <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="105"/>
+      <c r="A120" s="117"/>
       <c r="B120" s="71">
         <v>43074</v>
       </c>
@@ -8608,7 +8503,7 @@
       <c r="E120" s="52"/>
     </row>
     <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="105"/>
+      <c r="A121" s="117"/>
       <c r="B121" s="72">
         <f>B120</f>
         <v>43074</v>
@@ -8618,49 +8513,49 @@
       <c r="E121" s="52"/>
     </row>
     <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="105"/>
+      <c r="A122" s="117"/>
       <c r="B122" s="72"/>
       <c r="C122" s="50"/>
       <c r="D122" s="89"/>
       <c r="E122" s="52"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="105"/>
+      <c r="A123" s="117"/>
       <c r="B123" s="71"/>
       <c r="C123" s="50"/>
       <c r="D123" s="89"/>
       <c r="E123" s="52"/>
     </row>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="105"/>
+      <c r="A124" s="117"/>
       <c r="B124" s="69"/>
       <c r="C124" s="55"/>
       <c r="D124" s="89"/>
       <c r="E124" s="52"/>
     </row>
     <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="105"/>
+      <c r="A125" s="117"/>
       <c r="B125" s="70"/>
       <c r="C125" s="73"/>
       <c r="D125" s="89"/>
       <c r="E125" s="52"/>
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="105"/>
+      <c r="A126" s="117"/>
       <c r="B126" s="70"/>
       <c r="C126" s="75"/>
       <c r="D126" s="89"/>
       <c r="E126" s="52"/>
     </row>
     <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="105"/>
+      <c r="A127" s="117"/>
       <c r="B127" s="70"/>
       <c r="C127" s="75"/>
       <c r="D127" s="89"/>
       <c r="E127" s="52"/>
     </row>
     <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="105"/>
+      <c r="A128" s="117"/>
       <c r="B128" s="71">
         <v>43077</v>
       </c>
@@ -8669,7 +8564,7 @@
       <c r="E128" s="52"/>
     </row>
     <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="105"/>
+      <c r="A129" s="117"/>
       <c r="B129" s="72">
         <f>B128</f>
         <v>43077</v>
@@ -8679,28 +8574,28 @@
       <c r="E129" s="52"/>
     </row>
     <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="105"/>
+      <c r="A130" s="117"/>
       <c r="B130" s="72"/>
       <c r="C130" s="50"/>
       <c r="D130" s="89"/>
       <c r="E130" s="52"/>
     </row>
     <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="105"/>
+      <c r="A131" s="117"/>
       <c r="B131" s="71"/>
       <c r="C131" s="50"/>
       <c r="D131" s="89"/>
       <c r="E131" s="52"/>
     </row>
     <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="105"/>
+      <c r="A132" s="117"/>
       <c r="B132" s="69"/>
       <c r="C132" s="55"/>
       <c r="D132" s="89"/>
       <c r="E132" s="52"/>
     </row>
     <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="105"/>
+      <c r="A133" s="117"/>
       <c r="B133" s="81"/>
       <c r="C133" s="78" t="s">
         <v>42</v>
@@ -8709,7 +8604,7 @@
       <c r="E133" s="52"/>
     </row>
     <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="105"/>
+      <c r="A134" s="117"/>
       <c r="B134" s="81"/>
       <c r="C134" s="75" t="s">
         <v>40</v>
@@ -8718,14 +8613,14 @@
       <c r="E134" s="52"/>
     </row>
     <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="105"/>
+      <c r="A135" s="117"/>
       <c r="B135" s="81"/>
       <c r="C135" s="75"/>
       <c r="D135" s="89"/>
       <c r="E135" s="52"/>
     </row>
     <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="105"/>
+      <c r="A136" s="117"/>
       <c r="B136" s="82">
         <v>43081</v>
       </c>
@@ -8734,7 +8629,7 @@
       <c r="E136" s="52"/>
     </row>
     <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="105"/>
+      <c r="A137" s="117"/>
       <c r="B137" s="83">
         <f>B136</f>
         <v>43081</v>
@@ -8744,28 +8639,28 @@
       <c r="E137" s="52"/>
     </row>
     <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="105"/>
+      <c r="A138" s="117"/>
       <c r="B138" s="83"/>
       <c r="C138" s="50"/>
       <c r="D138" s="89"/>
       <c r="E138" s="52"/>
     </row>
     <row r="139" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="105"/>
+      <c r="A139" s="117"/>
       <c r="B139" s="82"/>
       <c r="C139" s="50"/>
       <c r="D139" s="89"/>
       <c r="E139" s="52"/>
     </row>
     <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="105"/>
+      <c r="A140" s="117"/>
       <c r="B140" s="84"/>
       <c r="C140" s="55"/>
       <c r="D140" s="89"/>
       <c r="E140" s="52"/>
     </row>
     <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="105"/>
+      <c r="A141" s="117"/>
       <c r="B141" s="81"/>
       <c r="C141" s="78" t="s">
         <v>42</v>
@@ -8774,7 +8669,7 @@
       <c r="E141" s="52"/>
     </row>
     <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="105"/>
+      <c r="A142" s="117"/>
       <c r="B142" s="81"/>
       <c r="C142" s="75" t="s">
         <v>40</v>
@@ -8783,14 +8678,14 @@
       <c r="E142" s="52"/>
     </row>
     <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="105"/>
+      <c r="A143" s="117"/>
       <c r="B143" s="81"/>
       <c r="C143" s="75"/>
       <c r="D143" s="89"/>
       <c r="E143" s="52"/>
     </row>
     <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="105"/>
+      <c r="A144" s="117"/>
       <c r="B144" s="82">
         <v>43084</v>
       </c>
@@ -8799,7 +8694,7 @@
       <c r="E144" s="52"/>
     </row>
     <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="105"/>
+      <c r="A145" s="117"/>
       <c r="B145" s="83">
         <f>B144</f>
         <v>43084</v>
@@ -8809,28 +8704,28 @@
       <c r="E145" s="52"/>
     </row>
     <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="105"/>
+      <c r="A146" s="117"/>
       <c r="B146" s="83"/>
       <c r="C146" s="50"/>
       <c r="D146" s="89"/>
       <c r="E146" s="52"/>
     </row>
     <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="105"/>
+      <c r="A147" s="117"/>
       <c r="B147" s="82"/>
       <c r="C147" s="50"/>
       <c r="D147" s="89"/>
       <c r="E147" s="52"/>
     </row>
     <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A148" s="106"/>
+      <c r="A148" s="118"/>
       <c r="B148" s="94"/>
       <c r="C148" s="58"/>
       <c r="D148" s="92"/>
       <c r="E148" s="59"/>
     </row>
     <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="107" t="s">
+      <c r="A149" s="119" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="76"/>
@@ -8839,21 +8734,21 @@
       <c r="E149" s="49"/>
     </row>
     <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="108"/>
+      <c r="A150" s="120"/>
       <c r="B150" s="70"/>
       <c r="C150" s="75"/>
       <c r="D150" s="89"/>
       <c r="E150" s="52"/>
     </row>
     <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="108"/>
+      <c r="A151" s="120"/>
       <c r="B151" s="70"/>
       <c r="C151" s="75"/>
       <c r="D151" s="89"/>
       <c r="E151" s="52"/>
     </row>
     <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="108"/>
+      <c r="A152" s="120"/>
       <c r="B152" s="71">
         <v>43088</v>
       </c>
@@ -8862,7 +8757,7 @@
       <c r="E152" s="52"/>
     </row>
     <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="108"/>
+      <c r="A153" s="120"/>
       <c r="B153" s="72">
         <f>B152</f>
         <v>43088</v>
@@ -8872,49 +8767,49 @@
       <c r="E153" s="52"/>
     </row>
     <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="108"/>
+      <c r="A154" s="120"/>
       <c r="B154" s="72"/>
       <c r="C154" s="50"/>
       <c r="D154" s="89"/>
       <c r="E154" s="52"/>
     </row>
     <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="108"/>
+      <c r="A155" s="120"/>
       <c r="B155" s="71"/>
       <c r="C155" s="50"/>
       <c r="D155" s="89"/>
       <c r="E155" s="52"/>
     </row>
     <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="108"/>
+      <c r="A156" s="120"/>
       <c r="B156" s="69"/>
       <c r="C156" s="60"/>
       <c r="D156" s="89"/>
       <c r="E156" s="52"/>
     </row>
     <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="108"/>
+      <c r="A157" s="120"/>
       <c r="B157" s="70"/>
       <c r="C157" s="75"/>
       <c r="D157" s="91"/>
       <c r="E157" s="54"/>
     </row>
     <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="108"/>
+      <c r="A158" s="120"/>
       <c r="B158" s="65"/>
       <c r="C158" s="75"/>
       <c r="D158" s="91"/>
       <c r="E158" s="54"/>
     </row>
     <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="108"/>
+      <c r="A159" s="120"/>
       <c r="B159" s="65"/>
       <c r="C159" s="50"/>
       <c r="D159" s="91"/>
       <c r="E159" s="54"/>
     </row>
     <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="108"/>
+      <c r="A160" s="120"/>
       <c r="B160" s="71">
         <v>43091</v>
       </c>
@@ -8923,7 +8818,7 @@
       <c r="E160" s="52"/>
     </row>
     <row r="161" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="108"/>
+      <c r="A161" s="120"/>
       <c r="B161" s="77">
         <f>B160</f>
         <v>43091</v>
@@ -8933,49 +8828,49 @@
       <c r="E161" s="52"/>
     </row>
     <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="108"/>
+      <c r="A162" s="120"/>
       <c r="B162" s="77"/>
       <c r="C162" s="50"/>
       <c r="D162" s="89"/>
       <c r="E162" s="52"/>
     </row>
     <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="108"/>
+      <c r="A163" s="120"/>
       <c r="B163" s="66"/>
       <c r="C163" s="50"/>
       <c r="D163" s="89"/>
       <c r="E163" s="52"/>
     </row>
     <row r="164" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="108"/>
+      <c r="A164" s="120"/>
       <c r="B164" s="67"/>
       <c r="C164" s="55"/>
       <c r="D164" s="89"/>
       <c r="E164" s="52"/>
     </row>
     <row r="165" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="108"/>
+      <c r="A165" s="120"/>
       <c r="B165" s="70"/>
       <c r="C165" s="75"/>
       <c r="D165" s="89"/>
       <c r="E165" s="54"/>
     </row>
     <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="108"/>
+      <c r="A166" s="120"/>
       <c r="B166" s="70"/>
       <c r="C166" s="75"/>
       <c r="D166" s="89"/>
       <c r="E166" s="54"/>
     </row>
     <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A167" s="108"/>
+      <c r="A167" s="120"/>
       <c r="B167" s="70"/>
       <c r="C167" s="75"/>
       <c r="D167" s="89"/>
       <c r="E167" s="54"/>
     </row>
     <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="108"/>
+      <c r="A168" s="120"/>
       <c r="B168" s="71">
         <v>43105</v>
       </c>
@@ -8984,7 +8879,7 @@
       <c r="E168" s="54"/>
     </row>
     <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="108"/>
+      <c r="A169" s="120"/>
       <c r="B169" s="72">
         <f>B168</f>
         <v>43105</v>
@@ -8994,49 +8889,49 @@
       <c r="E169" s="54"/>
     </row>
     <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="108"/>
+      <c r="A170" s="120"/>
       <c r="B170" s="72"/>
       <c r="C170" s="50"/>
       <c r="D170" s="89"/>
       <c r="E170" s="54"/>
     </row>
     <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="108"/>
+      <c r="A171" s="120"/>
       <c r="B171" s="71"/>
       <c r="C171" s="50"/>
       <c r="D171" s="89"/>
       <c r="E171" s="54"/>
     </row>
     <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="108"/>
+      <c r="A172" s="120"/>
       <c r="B172" s="69"/>
       <c r="C172" s="55"/>
       <c r="D172" s="89"/>
       <c r="E172" s="54"/>
     </row>
     <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="108"/>
+      <c r="A173" s="120"/>
       <c r="B173" s="70"/>
       <c r="C173" s="73"/>
       <c r="D173" s="89"/>
       <c r="E173" s="54"/>
     </row>
     <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="108"/>
+      <c r="A174" s="120"/>
       <c r="B174" s="70"/>
       <c r="C174" s="75"/>
       <c r="D174" s="89"/>
       <c r="E174" s="54"/>
     </row>
     <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="108"/>
+      <c r="A175" s="120"/>
       <c r="B175" s="70"/>
       <c r="C175" s="75"/>
       <c r="D175" s="89"/>
       <c r="E175" s="54"/>
     </row>
     <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="108"/>
+      <c r="A176" s="120"/>
       <c r="B176" s="71">
         <v>43109</v>
       </c>
@@ -9045,7 +8940,7 @@
       <c r="E176" s="54"/>
     </row>
     <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="108"/>
+      <c r="A177" s="120"/>
       <c r="B177" s="72">
         <f>B176</f>
         <v>43109</v>
@@ -9055,49 +8950,49 @@
       <c r="E177" s="54"/>
     </row>
     <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="108"/>
+      <c r="A178" s="120"/>
       <c r="B178" s="72"/>
       <c r="C178" s="50"/>
       <c r="D178" s="89"/>
       <c r="E178" s="54"/>
     </row>
     <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A179" s="108"/>
+      <c r="A179" s="120"/>
       <c r="B179" s="71"/>
       <c r="C179" s="50"/>
       <c r="D179" s="89"/>
       <c r="E179" s="54"/>
     </row>
     <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A180" s="108"/>
+      <c r="A180" s="120"/>
       <c r="B180" s="69"/>
       <c r="C180" s="55"/>
       <c r="D180" s="89"/>
       <c r="E180" s="54"/>
     </row>
     <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A181" s="108"/>
+      <c r="A181" s="120"/>
       <c r="B181" s="70"/>
       <c r="C181" s="75"/>
       <c r="D181" s="89"/>
       <c r="E181" s="54"/>
     </row>
     <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A182" s="108"/>
+      <c r="A182" s="120"/>
       <c r="B182" s="70"/>
       <c r="C182" s="75"/>
       <c r="D182" s="89"/>
       <c r="E182" s="54"/>
     </row>
     <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="108"/>
+      <c r="A183" s="120"/>
       <c r="B183" s="70"/>
       <c r="C183" s="75"/>
       <c r="D183" s="89"/>
       <c r="E183" s="54"/>
     </row>
     <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A184" s="108"/>
+      <c r="A184" s="120"/>
       <c r="B184" s="71">
         <v>43112</v>
       </c>
@@ -9106,7 +9001,7 @@
       <c r="E184" s="54"/>
     </row>
     <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A185" s="108"/>
+      <c r="A185" s="120"/>
       <c r="B185" s="72">
         <f>B184</f>
         <v>43112</v>
@@ -9116,28 +9011,28 @@
       <c r="E185" s="54"/>
     </row>
     <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A186" s="108"/>
+      <c r="A186" s="120"/>
       <c r="B186" s="72"/>
       <c r="C186" s="50"/>
       <c r="D186" s="89"/>
       <c r="E186" s="54"/>
     </row>
     <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A187" s="108"/>
+      <c r="A187" s="120"/>
       <c r="B187" s="71"/>
       <c r="C187" s="50"/>
       <c r="D187" s="89"/>
       <c r="E187" s="54"/>
     </row>
     <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A188" s="108"/>
+      <c r="A188" s="120"/>
       <c r="B188" s="69"/>
       <c r="C188" s="55"/>
       <c r="D188" s="89"/>
       <c r="E188" s="54"/>
     </row>
     <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A189" s="108"/>
+      <c r="A189" s="120"/>
       <c r="B189" s="95"/>
       <c r="C189" s="75" t="s">
         <v>48</v>
@@ -9146,7 +9041,7 @@
       <c r="E189" s="54"/>
     </row>
     <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A190" s="108"/>
+      <c r="A190" s="120"/>
       <c r="B190" s="96"/>
       <c r="C190" s="75" t="s">
         <v>40</v>
@@ -9155,14 +9050,14 @@
       <c r="E190" s="54"/>
     </row>
     <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A191" s="108"/>
+      <c r="A191" s="120"/>
       <c r="B191" s="96"/>
       <c r="C191" s="75"/>
       <c r="D191" s="89"/>
       <c r="E191" s="54"/>
     </row>
     <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A192" s="108"/>
+      <c r="A192" s="120"/>
       <c r="B192" s="82">
         <v>43116</v>
       </c>
@@ -9171,7 +9066,7 @@
       <c r="E192" s="52"/>
     </row>
     <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A193" s="108"/>
+      <c r="A193" s="120"/>
       <c r="B193" s="97">
         <f>B192</f>
         <v>43116</v>
@@ -9181,28 +9076,28 @@
       <c r="E193" s="52"/>
     </row>
     <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A194" s="108"/>
+      <c r="A194" s="120"/>
       <c r="B194" s="97"/>
       <c r="C194" s="50"/>
       <c r="D194" s="89"/>
       <c r="E194" s="52"/>
     </row>
     <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A195" s="108"/>
+      <c r="A195" s="120"/>
       <c r="B195" s="98"/>
       <c r="C195" s="50"/>
       <c r="D195" s="89"/>
       <c r="E195" s="52"/>
     </row>
     <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A196" s="108"/>
+      <c r="A196" s="120"/>
       <c r="B196" s="84"/>
       <c r="C196" s="55"/>
       <c r="D196" s="89"/>
       <c r="E196" s="52"/>
     </row>
     <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A197" s="108"/>
+      <c r="A197" s="120"/>
       <c r="B197" s="95"/>
       <c r="C197" s="75" t="s">
         <v>48</v>
@@ -9211,7 +9106,7 @@
       <c r="E197" s="54"/>
     </row>
     <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A198" s="108"/>
+      <c r="A198" s="120"/>
       <c r="B198" s="96"/>
       <c r="C198" s="75" t="s">
         <v>40</v>
@@ -9220,14 +9115,14 @@
       <c r="E198" s="54"/>
     </row>
     <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="108"/>
+      <c r="A199" s="120"/>
       <c r="B199" s="96"/>
       <c r="C199" s="50"/>
       <c r="D199" s="89"/>
       <c r="E199" s="54"/>
     </row>
     <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A200" s="108"/>
+      <c r="A200" s="120"/>
       <c r="B200" s="82">
         <v>43119</v>
       </c>
@@ -9236,7 +9131,7 @@
       <c r="E200" s="54"/>
     </row>
     <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A201" s="108"/>
+      <c r="A201" s="120"/>
       <c r="B201" s="97">
         <f>B200</f>
         <v>43119</v>
@@ -9246,21 +9141,21 @@
       <c r="E201" s="54"/>
     </row>
     <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A202" s="108"/>
+      <c r="A202" s="120"/>
       <c r="B202" s="97"/>
       <c r="C202" s="50"/>
       <c r="D202" s="89"/>
       <c r="E202" s="54"/>
     </row>
     <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A203" s="108"/>
+      <c r="A203" s="120"/>
       <c r="B203" s="98"/>
       <c r="C203" s="50"/>
       <c r="D203" s="89"/>
       <c r="E203" s="54"/>
     </row>
     <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A204" s="109"/>
+      <c r="A204" s="121"/>
       <c r="B204" s="94"/>
       <c r="C204" s="58"/>
       <c r="D204" s="92"/>
@@ -9352,8 +9247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9375,54 +9270,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
     </row>
     <row r="2" spans="1:20" s="8" customFormat="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="125"/>
       <c r="J2" s="23" t="s">
         <v>49</v>
       </c>
@@ -9449,15 +9344,15 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="113"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="125"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
         <v>35</v>
@@ -9467,7 +9362,7 @@
         <v>30</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="K3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
+        <f t="shared" ref="L3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
         <v>26</v>
       </c>
       <c r="M3" s="20">
@@ -9490,24 +9385,24 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S3" s="129" t="s">
+      <c r="S3" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="T3" s="130">
+      <c r="T3" s="111">
         <f>6*8</f>
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="113"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="125"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>35</v>
@@ -9538,12 +9433,12 @@
       </c>
       <c r="Q4" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="119"/>
-      <c r="B5" s="120" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="101" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="18"/>
@@ -9569,7 +9464,7 @@
       <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="121">
+      <c r="A6" s="102">
         <v>1</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -9624,7 +9519,7 @@
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="121">
+      <c r="A7" s="102">
         <v>2</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -9679,7 +9574,7 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="121">
+      <c r="A8" s="102">
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -9734,7 +9629,7 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="121">
+      <c r="A9" s="102">
         <v>4</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -9789,7 +9684,7 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="121">
+      <c r="A10" s="102">
         <v>5</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -9816,7 +9711,7 @@
       </c>
       <c r="I10" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="22">
         <v>4</v>
@@ -9839,10 +9734,12 @@
       <c r="P10" s="22">
         <v>4</v>
       </c>
-      <c r="Q10" s="22"/>
+      <c r="Q10" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="121">
+      <c r="A11" s="102">
         <v>6</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -9897,7 +9794,7 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="121">
+      <c r="A12" s="102">
         <v>7</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -9952,7 +9849,7 @@
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="121">
+      <c r="A13" s="102">
         <v>8</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -10007,7 +9904,7 @@
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="121">
+      <c r="A14" s="102">
         <v>9</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -10034,7 +9931,7 @@
       </c>
       <c r="I14" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="22">
         <v>2</v>
@@ -10057,10 +9954,12 @@
       <c r="P14" s="22">
         <v>2</v>
       </c>
-      <c r="Q14" s="22"/>
+      <c r="Q14" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="121">
+      <c r="A15" s="102">
         <v>10</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -10115,7 +10014,7 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="121">
+      <c r="A16" s="102">
         <v>11</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -10195,8 +10094,8 @@
       <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="121"/>
-      <c r="B18" s="122" t="s">
+      <c r="A18" s="102"/>
+      <c r="B18" s="103" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="18"/>
@@ -10222,7 +10121,7 @@
       <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="121">
+      <c r="A19" s="102">
         <v>1</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -10253,7 +10152,7 @@
       <c r="Q19" s="22"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="121">
+      <c r="A20" s="102">
         <v>2</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -12439,7 +12338,7 @@
       </c>
       <c r="U107" s="10">
         <f t="shared" ref="U107:U116" ca="1" si="7">SUMIF($C$5:$C$104,S107,$I$5:$I$104)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V107" s="10">
         <f t="shared" ref="V107:V116" si="8">SUMIF($C$5:$C$104,S107,$H$5:$H$104)</f>
@@ -12451,7 +12350,7 @@
       </c>
       <c r="X107" s="15">
         <f ca="1">IF(W107&gt;U107,0,U107-W107)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -13470,112 +13369,112 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="122" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="16" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="17" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="18" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:XFD17 A21:XFD104 C18:XFD20 C5:XFD5 C6:D16 I6:I16 Q6:XFD16">
-    <cfRule type="expression" dxfId="119" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="19" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="20" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="21" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="116" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="22" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="23" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="24" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="113" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="25" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="26" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="27" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:Q65536">
-    <cfRule type="expression" dxfId="110" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="28" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="29" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="30" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B16">
-    <cfRule type="expression" dxfId="107" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="13" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="14" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="15" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P16">
-    <cfRule type="expression" dxfId="104" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="1" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="2" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="3" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B20">
-    <cfRule type="expression" dxfId="101" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="10" stopIfTrue="1">
       <formula>$D18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="11" stopIfTrue="1">
       <formula>$D18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="12" stopIfTrue="1">
       <formula>OR($D18="終了",$D18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F16">
-    <cfRule type="expression" dxfId="98" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="7" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="8" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="9" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H16">
-    <cfRule type="expression" dxfId="92" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="5" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="6" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13591,8 +13490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -13605,7 +13504,7 @@
     <col min="7" max="8" width="6.88671875" style="9" customWidth="1"/>
     <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
     <col min="10" max="13" width="4.77734375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="125" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="106" customWidth="1"/>
     <col min="15" max="19" width="4.6640625" style="7" customWidth="1"/>
     <col min="20" max="20" width="2.88671875" customWidth="1"/>
     <col min="31" max="31" width="14.21875" customWidth="1"/>
@@ -13614,56 +13513,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="125"/>
       <c r="J2" s="23" t="s">
         <v>57</v>
       </c>
@@ -13676,7 +13575,7 @@
       <c r="M2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="126" t="s">
+      <c r="N2" s="107" t="s">
         <v>61</v>
       </c>
       <c r="O2" s="23" t="s">
@@ -13696,15 +13595,15 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="113"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="125"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
         <v>0</v>
@@ -13747,15 +13646,15 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="113"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="125"/>
       <c r="J4" s="21">
         <f>SUM(J5:J109)</f>
         <v>0</v>
@@ -13799,7 +13698,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="16"/>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="108" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="18"/>
@@ -13819,7 +13718,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="123"/>
+      <c r="N5" s="104"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
@@ -13827,7 +13726,7 @@
       <c r="S5" s="22"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="121">
+      <c r="A6" s="102">
         <v>1</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -13841,7 +13740,7 @@
         <v>未着手</v>
       </c>
       <c r="E6" s="4">
-        <v>43049</v>
+        <v>43053</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="19">
@@ -13856,7 +13755,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="123"/>
+      <c r="N6" s="104"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
@@ -13864,7 +13763,7 @@
       <c r="S6" s="22"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="121">
+      <c r="A7" s="102">
         <v>2</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -13893,7 +13792,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="123"/>
+      <c r="N7" s="104"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -13901,7 +13800,7 @@
       <c r="S7" s="22"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="121">
+      <c r="A8" s="102">
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -13915,7 +13814,7 @@
         <v>未着手</v>
       </c>
       <c r="E8" s="4">
-        <v>43053</v>
+        <v>43056</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="19">
@@ -13930,7 +13829,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="123"/>
+      <c r="N8" s="104"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -13938,7 +13837,7 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="121">
+      <c r="A9" s="102">
         <v>4</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -13967,7 +13866,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
-      <c r="N9" s="123"/>
+      <c r="N9" s="104"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
@@ -13975,7 +13874,7 @@
       <c r="S9" s="22"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="121">
+      <c r="A10" s="102">
         <v>5</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -13989,7 +13888,7 @@
         <v>未着手</v>
       </c>
       <c r="E10" s="4">
-        <v>43056</v>
+        <v>43060</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="19">
@@ -14004,7 +13903,7 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="123"/>
+      <c r="N10" s="104"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -14012,7 +13911,7 @@
       <c r="S10" s="22"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="121">
+      <c r="A11" s="102">
         <v>6</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -14041,7 +13940,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="123"/>
+      <c r="N11" s="104"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -14068,7 +13967,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
-      <c r="N12" s="123"/>
+      <c r="N12" s="104"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
@@ -14076,8 +13975,8 @@
       <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="121"/>
-      <c r="B13" s="128" t="s">
+      <c r="A13" s="102"/>
+      <c r="B13" s="109" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="18"/>
@@ -14097,7 +13996,7 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
-      <c r="N13" s="123"/>
+      <c r="N13" s="104"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
@@ -14105,7 +14004,7 @@
       <c r="S13" s="22"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="121">
+      <c r="A14" s="102">
         <v>1</v>
       </c>
       <c r="B14" s="17"/>
@@ -14126,7 +14025,7 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="123"/>
+      <c r="N14" s="104"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
@@ -14153,7 +14052,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
-      <c r="N15" s="123"/>
+      <c r="N15" s="104"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
@@ -14161,8 +14060,8 @@
       <c r="S15" s="22"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="121"/>
-      <c r="B16" s="128" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="109" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="18"/>
@@ -14182,7 +14081,7 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
-      <c r="N16" s="123"/>
+      <c r="N16" s="104"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
@@ -14190,7 +14089,7 @@
       <c r="S16" s="22"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="121">
+      <c r="A17" s="102">
         <v>1</v>
       </c>
       <c r="B17" s="17"/>
@@ -14211,7 +14110,7 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
-      <c r="N17" s="123"/>
+      <c r="N17" s="104"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
@@ -14238,7 +14137,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="123"/>
+      <c r="N18" s="104"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
@@ -14246,8 +14145,8 @@
       <c r="S18" s="22"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="121"/>
-      <c r="B19" s="127" t="s">
+      <c r="A19" s="102"/>
+      <c r="B19" s="108" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="18"/>
@@ -14267,7 +14166,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
-      <c r="N19" s="123"/>
+      <c r="N19" s="104"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
@@ -14275,7 +14174,7 @@
       <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="121">
+      <c r="A20" s="102">
         <v>1</v>
       </c>
       <c r="B20" s="17"/>
@@ -14296,7 +14195,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
-      <c r="N20" s="123"/>
+      <c r="N20" s="104"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
@@ -14323,7 +14222,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
-      <c r="N21" s="123"/>
+      <c r="N21" s="104"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
@@ -14350,7 +14249,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
-      <c r="N22" s="123"/>
+      <c r="N22" s="104"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
@@ -14377,7 +14276,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
-      <c r="N23" s="123"/>
+      <c r="N23" s="104"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
@@ -14404,7 +14303,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="123"/>
+      <c r="N24" s="104"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
@@ -14431,7 +14330,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
-      <c r="N25" s="123"/>
+      <c r="N25" s="104"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
@@ -14458,7 +14357,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
-      <c r="N26" s="123"/>
+      <c r="N26" s="104"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
@@ -14485,7 +14384,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
-      <c r="N27" s="123"/>
+      <c r="N27" s="104"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
@@ -14512,7 +14411,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
-      <c r="N28" s="123"/>
+      <c r="N28" s="104"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
@@ -14539,7 +14438,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
-      <c r="N29" s="123"/>
+      <c r="N29" s="104"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
@@ -14566,7 +14465,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
-      <c r="N30" s="123"/>
+      <c r="N30" s="104"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
@@ -14593,7 +14492,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
-      <c r="N31" s="123"/>
+      <c r="N31" s="104"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
@@ -14620,7 +14519,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
-      <c r="N32" s="123"/>
+      <c r="N32" s="104"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
@@ -14647,7 +14546,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
-      <c r="N33" s="123"/>
+      <c r="N33" s="104"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
@@ -14674,7 +14573,7 @@
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
-      <c r="N34" s="123"/>
+      <c r="N34" s="104"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
@@ -14701,7 +14600,7 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
-      <c r="N35" s="123"/>
+      <c r="N35" s="104"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
@@ -14728,7 +14627,7 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
-      <c r="N36" s="123"/>
+      <c r="N36" s="104"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
@@ -14755,7 +14654,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
-      <c r="N37" s="123"/>
+      <c r="N37" s="104"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
@@ -14782,7 +14681,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
-      <c r="N38" s="123"/>
+      <c r="N38" s="104"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
@@ -14809,7 +14708,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
-      <c r="N39" s="123"/>
+      <c r="N39" s="104"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
@@ -14836,7 +14735,7 @@
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
-      <c r="N40" s="123"/>
+      <c r="N40" s="104"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
       <c r="Q40" s="22"/>
@@ -14863,7 +14762,7 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
-      <c r="N41" s="123"/>
+      <c r="N41" s="104"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
@@ -14890,7 +14789,7 @@
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
-      <c r="N42" s="123"/>
+      <c r="N42" s="104"/>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
       <c r="Q42" s="22"/>
@@ -14917,7 +14816,7 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
-      <c r="N43" s="123"/>
+      <c r="N43" s="104"/>
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
       <c r="Q43" s="22"/>
@@ -14944,7 +14843,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
-      <c r="N44" s="123"/>
+      <c r="N44" s="104"/>
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
       <c r="Q44" s="22"/>
@@ -14971,7 +14870,7 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
-      <c r="N45" s="123"/>
+      <c r="N45" s="104"/>
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
@@ -14998,7 +14897,7 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
-      <c r="N46" s="123"/>
+      <c r="N46" s="104"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
       <c r="Q46" s="22"/>
@@ -15025,7 +14924,7 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
-      <c r="N47" s="123"/>
+      <c r="N47" s="104"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
       <c r="Q47" s="22"/>
@@ -15052,7 +14951,7 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
-      <c r="N48" s="123"/>
+      <c r="N48" s="104"/>
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
@@ -15079,7 +14978,7 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
-      <c r="N49" s="123"/>
+      <c r="N49" s="104"/>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
@@ -15106,7 +15005,7 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
-      <c r="N50" s="123"/>
+      <c r="N50" s="104"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
@@ -15133,7 +15032,7 @@
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="123"/>
+      <c r="N51" s="104"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
@@ -15160,7 +15059,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
-      <c r="N52" s="123"/>
+      <c r="N52" s="104"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
       <c r="Q52" s="22"/>
@@ -15187,7 +15086,7 @@
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
-      <c r="N53" s="123"/>
+      <c r="N53" s="104"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
       <c r="Q53" s="22"/>
@@ -15214,7 +15113,7 @@
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
-      <c r="N54" s="123"/>
+      <c r="N54" s="104"/>
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
@@ -15241,7 +15140,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
-      <c r="N55" s="123"/>
+      <c r="N55" s="104"/>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
       <c r="Q55" s="22"/>
@@ -15268,7 +15167,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
-      <c r="N56" s="123"/>
+      <c r="N56" s="104"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
       <c r="Q56" s="22"/>
@@ -15295,7 +15194,7 @@
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
-      <c r="N57" s="123"/>
+      <c r="N57" s="104"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
       <c r="Q57" s="22"/>
@@ -15322,7 +15221,7 @@
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="123"/>
+      <c r="N58" s="104"/>
       <c r="O58" s="22"/>
       <c r="P58" s="22"/>
       <c r="Q58" s="22"/>
@@ -15349,7 +15248,7 @@
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
-      <c r="N59" s="123"/>
+      <c r="N59" s="104"/>
       <c r="O59" s="22"/>
       <c r="P59" s="22"/>
       <c r="Q59" s="22"/>
@@ -15376,7 +15275,7 @@
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
-      <c r="N60" s="123"/>
+      <c r="N60" s="104"/>
       <c r="O60" s="22"/>
       <c r="P60" s="22"/>
       <c r="Q60" s="22"/>
@@ -15403,7 +15302,7 @@
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
-      <c r="N61" s="123"/>
+      <c r="N61" s="104"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="Q61" s="22"/>
@@ -15430,7 +15329,7 @@
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
-      <c r="N62" s="123"/>
+      <c r="N62" s="104"/>
       <c r="O62" s="22"/>
       <c r="P62" s="22"/>
       <c r="Q62" s="22"/>
@@ -15457,7 +15356,7 @@
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
-      <c r="N63" s="123"/>
+      <c r="N63" s="104"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
       <c r="Q63" s="22"/>
@@ -15484,7 +15383,7 @@
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
-      <c r="N64" s="123"/>
+      <c r="N64" s="104"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
       <c r="Q64" s="22"/>
@@ -15511,7 +15410,7 @@
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
-      <c r="N65" s="123"/>
+      <c r="N65" s="104"/>
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
       <c r="Q65" s="22"/>
@@ -15538,7 +15437,7 @@
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
-      <c r="N66" s="123"/>
+      <c r="N66" s="104"/>
       <c r="O66" s="22"/>
       <c r="P66" s="22"/>
       <c r="Q66" s="22"/>
@@ -15565,7 +15464,7 @@
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
-      <c r="N67" s="123"/>
+      <c r="N67" s="104"/>
       <c r="O67" s="22"/>
       <c r="P67" s="22"/>
       <c r="Q67" s="22"/>
@@ -15592,7 +15491,7 @@
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
-      <c r="N68" s="123"/>
+      <c r="N68" s="104"/>
       <c r="O68" s="22"/>
       <c r="P68" s="22"/>
       <c r="Q68" s="22"/>
@@ -15619,7 +15518,7 @@
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
-      <c r="N69" s="123"/>
+      <c r="N69" s="104"/>
       <c r="O69" s="22"/>
       <c r="P69" s="22"/>
       <c r="Q69" s="22"/>
@@ -15646,7 +15545,7 @@
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
-      <c r="N70" s="123"/>
+      <c r="N70" s="104"/>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
       <c r="Q70" s="22"/>
@@ -15673,7 +15572,7 @@
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
-      <c r="N71" s="123"/>
+      <c r="N71" s="104"/>
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
       <c r="Q71" s="22"/>
@@ -15700,7 +15599,7 @@
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
-      <c r="N72" s="123"/>
+      <c r="N72" s="104"/>
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="Q72" s="22"/>
@@ -15727,7 +15626,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
-      <c r="N73" s="123"/>
+      <c r="N73" s="104"/>
       <c r="O73" s="22"/>
       <c r="P73" s="22"/>
       <c r="Q73" s="22"/>
@@ -15754,7 +15653,7 @@
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
       <c r="M74" s="22"/>
-      <c r="N74" s="123"/>
+      <c r="N74" s="104"/>
       <c r="O74" s="22"/>
       <c r="P74" s="22"/>
       <c r="Q74" s="22"/>
@@ -15781,7 +15680,7 @@
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
-      <c r="N75" s="123"/>
+      <c r="N75" s="104"/>
       <c r="O75" s="22"/>
       <c r="P75" s="22"/>
       <c r="Q75" s="22"/>
@@ -15808,7 +15707,7 @@
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
-      <c r="N76" s="123"/>
+      <c r="N76" s="104"/>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
       <c r="Q76" s="22"/>
@@ -15835,7 +15734,7 @@
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
-      <c r="N77" s="123"/>
+      <c r="N77" s="104"/>
       <c r="O77" s="22"/>
       <c r="P77" s="22"/>
       <c r="Q77" s="22"/>
@@ -15862,7 +15761,7 @@
       <c r="K78" s="22"/>
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
-      <c r="N78" s="123"/>
+      <c r="N78" s="104"/>
       <c r="O78" s="22"/>
       <c r="P78" s="22"/>
       <c r="Q78" s="22"/>
@@ -15889,7 +15788,7 @@
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
       <c r="M79" s="22"/>
-      <c r="N79" s="123"/>
+      <c r="N79" s="104"/>
       <c r="O79" s="22"/>
       <c r="P79" s="22"/>
       <c r="Q79" s="22"/>
@@ -15916,7 +15815,7 @@
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
-      <c r="N80" s="123"/>
+      <c r="N80" s="104"/>
       <c r="O80" s="22"/>
       <c r="P80" s="22"/>
       <c r="Q80" s="22"/>
@@ -15943,7 +15842,7 @@
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
-      <c r="N81" s="123"/>
+      <c r="N81" s="104"/>
       <c r="O81" s="22"/>
       <c r="P81" s="22"/>
       <c r="Q81" s="22"/>
@@ -15970,7 +15869,7 @@
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
       <c r="M82" s="22"/>
-      <c r="N82" s="123"/>
+      <c r="N82" s="104"/>
       <c r="O82" s="22"/>
       <c r="P82" s="22"/>
       <c r="Q82" s="22"/>
@@ -15997,7 +15896,7 @@
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
-      <c r="N83" s="123"/>
+      <c r="N83" s="104"/>
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
       <c r="Q83" s="22"/>
@@ -16024,7 +15923,7 @@
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
-      <c r="N84" s="123"/>
+      <c r="N84" s="104"/>
       <c r="O84" s="22"/>
       <c r="P84" s="22"/>
       <c r="Q84" s="22"/>
@@ -16051,7 +15950,7 @@
       <c r="K85" s="22"/>
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
-      <c r="N85" s="123"/>
+      <c r="N85" s="104"/>
       <c r="O85" s="22"/>
       <c r="P85" s="22"/>
       <c r="Q85" s="22"/>
@@ -16078,7 +15977,7 @@
       <c r="K86" s="22"/>
       <c r="L86" s="22"/>
       <c r="M86" s="22"/>
-      <c r="N86" s="123"/>
+      <c r="N86" s="104"/>
       <c r="O86" s="22"/>
       <c r="P86" s="22"/>
       <c r="Q86" s="22"/>
@@ -16105,7 +16004,7 @@
       <c r="K87" s="22"/>
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
-      <c r="N87" s="123"/>
+      <c r="N87" s="104"/>
       <c r="O87" s="22"/>
       <c r="P87" s="22"/>
       <c r="Q87" s="22"/>
@@ -16132,7 +16031,7 @@
       <c r="K88" s="22"/>
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
-      <c r="N88" s="123"/>
+      <c r="N88" s="104"/>
       <c r="O88" s="22"/>
       <c r="P88" s="22"/>
       <c r="Q88" s="22"/>
@@ -16159,7 +16058,7 @@
       <c r="K89" s="22"/>
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
-      <c r="N89" s="123"/>
+      <c r="N89" s="104"/>
       <c r="O89" s="22"/>
       <c r="P89" s="22"/>
       <c r="Q89" s="22"/>
@@ -16186,7 +16085,7 @@
       <c r="K90" s="22"/>
       <c r="L90" s="22"/>
       <c r="M90" s="22"/>
-      <c r="N90" s="123"/>
+      <c r="N90" s="104"/>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
       <c r="Q90" s="22"/>
@@ -16213,7 +16112,7 @@
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
-      <c r="N91" s="123"/>
+      <c r="N91" s="104"/>
       <c r="O91" s="22"/>
       <c r="P91" s="22"/>
       <c r="Q91" s="22"/>
@@ -16240,7 +16139,7 @@
       <c r="K92" s="22"/>
       <c r="L92" s="22"/>
       <c r="M92" s="22"/>
-      <c r="N92" s="123"/>
+      <c r="N92" s="104"/>
       <c r="O92" s="22"/>
       <c r="P92" s="22"/>
       <c r="Q92" s="22"/>
@@ -16267,7 +16166,7 @@
       <c r="K93" s="22"/>
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
-      <c r="N93" s="123"/>
+      <c r="N93" s="104"/>
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
       <c r="Q93" s="22"/>
@@ -16294,7 +16193,7 @@
       <c r="K94" s="22"/>
       <c r="L94" s="22"/>
       <c r="M94" s="22"/>
-      <c r="N94" s="123"/>
+      <c r="N94" s="104"/>
       <c r="O94" s="22"/>
       <c r="P94" s="22"/>
       <c r="Q94" s="22"/>
@@ -16321,7 +16220,7 @@
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
-      <c r="N95" s="123"/>
+      <c r="N95" s="104"/>
       <c r="O95" s="22"/>
       <c r="P95" s="22"/>
       <c r="Q95" s="22"/>
@@ -16348,7 +16247,7 @@
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
-      <c r="N96" s="123"/>
+      <c r="N96" s="104"/>
       <c r="O96" s="22"/>
       <c r="P96" s="22"/>
       <c r="Q96" s="22"/>
@@ -16375,7 +16274,7 @@
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
       <c r="M97" s="22"/>
-      <c r="N97" s="123"/>
+      <c r="N97" s="104"/>
       <c r="O97" s="22"/>
       <c r="P97" s="22"/>
       <c r="Q97" s="22"/>
@@ -16402,7 +16301,7 @@
       <c r="K98" s="22"/>
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
-      <c r="N98" s="123"/>
+      <c r="N98" s="104"/>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
       <c r="Q98" s="22"/>
@@ -16429,7 +16328,7 @@
       <c r="K99" s="22"/>
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
-      <c r="N99" s="123"/>
+      <c r="N99" s="104"/>
       <c r="O99" s="22"/>
       <c r="P99" s="22"/>
       <c r="Q99" s="22"/>
@@ -16456,7 +16355,7 @@
       <c r="K100" s="22"/>
       <c r="L100" s="22"/>
       <c r="M100" s="22"/>
-      <c r="N100" s="123"/>
+      <c r="N100" s="104"/>
       <c r="O100" s="22"/>
       <c r="P100" s="22"/>
       <c r="Q100" s="22"/>
@@ -16483,7 +16382,7 @@
       <c r="K101" s="22"/>
       <c r="L101" s="22"/>
       <c r="M101" s="22"/>
-      <c r="N101" s="123"/>
+      <c r="N101" s="104"/>
       <c r="O101" s="22"/>
       <c r="P101" s="22"/>
       <c r="Q101" s="22"/>
@@ -16510,7 +16409,7 @@
       <c r="K102" s="22"/>
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
-      <c r="N102" s="123"/>
+      <c r="N102" s="104"/>
       <c r="O102" s="22"/>
       <c r="P102" s="22"/>
       <c r="Q102" s="22"/>
@@ -16537,7 +16436,7 @@
       <c r="K103" s="22"/>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
-      <c r="N103" s="123"/>
+      <c r="N103" s="104"/>
       <c r="O103" s="22"/>
       <c r="P103" s="22"/>
       <c r="Q103" s="22"/>
@@ -16564,7 +16463,7 @@
       <c r="K104" s="22"/>
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
-      <c r="N104" s="123"/>
+      <c r="N104" s="104"/>
       <c r="O104" s="22"/>
       <c r="P104" s="22"/>
       <c r="Q104" s="22"/>
@@ -16591,7 +16490,7 @@
       <c r="K105" s="22"/>
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
-      <c r="N105" s="123"/>
+      <c r="N105" s="104"/>
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
       <c r="Q105" s="22"/>
@@ -16618,7 +16517,7 @@
       <c r="K106" s="22"/>
       <c r="L106" s="22"/>
       <c r="M106" s="22"/>
-      <c r="N106" s="123"/>
+      <c r="N106" s="104"/>
       <c r="O106" s="22"/>
       <c r="P106" s="22"/>
       <c r="Q106" s="22"/>
@@ -16645,7 +16544,7 @@
       <c r="K107" s="22"/>
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
-      <c r="N107" s="123"/>
+      <c r="N107" s="104"/>
       <c r="O107" s="22"/>
       <c r="P107" s="22"/>
       <c r="Q107" s="22"/>
@@ -16672,7 +16571,7 @@
       <c r="K108" s="22"/>
       <c r="L108" s="22"/>
       <c r="M108" s="22"/>
-      <c r="N108" s="123"/>
+      <c r="N108" s="104"/>
       <c r="O108" s="22"/>
       <c r="P108" s="22"/>
       <c r="Q108" s="22"/>
@@ -16699,7 +16598,7 @@
       <c r="K109" s="22"/>
       <c r="L109" s="22"/>
       <c r="M109" s="22"/>
-      <c r="N109" s="123"/>
+      <c r="N109" s="104"/>
       <c r="O109" s="22"/>
       <c r="P109" s="22"/>
       <c r="Q109" s="22"/>
@@ -16711,7 +16610,7 @@
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
-      <c r="N110" s="124"/>
+      <c r="N110" s="105"/>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
@@ -16723,7 +16622,7 @@
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
-      <c r="N111" s="124"/>
+      <c r="N111" s="105"/>
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
@@ -16753,7 +16652,7 @@
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
-      <c r="N112" s="124"/>
+      <c r="N112" s="105"/>
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
@@ -16763,19 +16662,19 @@
         <v>102</v>
       </c>
       <c r="V112" s="10">
-        <f>SUMIF($C$5:$C$109,U112,$G$5:$G$109)</f>
+        <f t="shared" ref="V112:V121" si="9">SUMIF($C$5:$C$109,U112,$G$5:$G$109)</f>
         <v>18</v>
       </c>
       <c r="W112" s="10">
-        <f ca="1">SUMIF($C$5:$C$109,U112,$I$5:$I$109)</f>
+        <f t="shared" ref="W112:W121" ca="1" si="10">SUMIF($C$5:$C$109,U112,$I$5:$I$109)</f>
         <v>0</v>
       </c>
       <c r="X112" s="10">
-        <f>SUMIF($C$5:$C$109,U112,$H$5:$H$109)</f>
+        <f t="shared" ref="X112:X121" si="11">SUMIF($C$5:$C$109,U112,$H$5:$H$109)</f>
         <v>0</v>
       </c>
       <c r="Y112" s="14">
-        <f t="shared" ref="Y112:Y121" si="9">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
+        <f t="shared" ref="Y112:Y121" si="12">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
         <v>0</v>
       </c>
       <c r="Z112" s="15">
@@ -16788,7 +16687,7 @@
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
-      <c r="N113" s="124"/>
+      <c r="N113" s="105"/>
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
@@ -16798,23 +16697,23 @@
         <v>103</v>
       </c>
       <c r="V113" s="10">
-        <f>SUMIF($C$5:$C$109,U113,$G$5:$G$109)</f>
-        <v>0</v>
-      </c>
-      <c r="W113" s="10">
-        <f>SUMIF($C$5:$C$109,U113,$I$5:$I$109)</f>
-        <v>0</v>
-      </c>
-      <c r="X113" s="10">
-        <f>SUMIF($C$5:$C$109,U113,$H$5:$H$109)</f>
-        <v>0</v>
-      </c>
-      <c r="Y113" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="W113" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X113" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y113" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Z113" s="15">
-        <f t="shared" ref="Z113:Z121" si="10">IF(Y113&gt;W113,0,W113-Y113)</f>
+        <f t="shared" ref="Z113:Z121" si="13">IF(Y113&gt;W113,0,W113-Y113)</f>
         <v>0</v>
       </c>
     </row>
@@ -16823,7 +16722,7 @@
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
-      <c r="N114" s="124"/>
+      <c r="N114" s="105"/>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
@@ -16831,23 +16730,23 @@
       <c r="S114" s="6"/>
       <c r="U114" s="11"/>
       <c r="V114" s="10">
-        <f>SUMIF($C$5:$C$109,U114,$G$5:$G$109)</f>
-        <v>0</v>
-      </c>
-      <c r="W114" s="10">
-        <f>SUMIF($C$5:$C$109,U114,$I$5:$I$109)</f>
-        <v>0</v>
-      </c>
-      <c r="X114" s="10">
-        <f>SUMIF($C$5:$C$109,U114,$H$5:$H$109)</f>
-        <v>0</v>
-      </c>
-      <c r="Y114" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="W114" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X114" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y114" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Z114" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16856,7 +16755,7 @@
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
-      <c r="N115" s="124"/>
+      <c r="N115" s="105"/>
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
@@ -16864,23 +16763,23 @@
       <c r="S115" s="6"/>
       <c r="U115" s="11"/>
       <c r="V115" s="10">
-        <f>SUMIF($C$5:$C$109,U115,$G$5:$G$109)</f>
-        <v>0</v>
-      </c>
-      <c r="W115" s="10">
-        <f>SUMIF($C$5:$C$109,U115,$I$5:$I$109)</f>
-        <v>0</v>
-      </c>
-      <c r="X115" s="10">
-        <f>SUMIF($C$5:$C$109,U115,$H$5:$H$109)</f>
-        <v>0</v>
-      </c>
-      <c r="Y115" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="W115" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X115" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y115" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Z115" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16889,7 +16788,7 @@
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
-      <c r="N116" s="124"/>
+      <c r="N116" s="105"/>
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
@@ -16897,23 +16796,23 @@
       <c r="S116" s="6"/>
       <c r="U116" s="11"/>
       <c r="V116" s="10">
-        <f>SUMIF($C$5:$C$109,U116,$G$5:$G$109)</f>
-        <v>0</v>
-      </c>
-      <c r="W116" s="10">
-        <f>SUMIF($C$5:$C$109,U116,$I$5:$I$109)</f>
-        <v>0</v>
-      </c>
-      <c r="X116" s="10">
-        <f>SUMIF($C$5:$C$109,U116,$H$5:$H$109)</f>
-        <v>0</v>
-      </c>
-      <c r="Y116" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="W116" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X116" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y116" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Z116" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16922,7 +16821,7 @@
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
-      <c r="N117" s="124"/>
+      <c r="N117" s="105"/>
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
@@ -16930,23 +16829,23 @@
       <c r="S117" s="6"/>
       <c r="U117" s="11"/>
       <c r="V117" s="10">
-        <f>SUMIF($C$5:$C$109,U117,$G$5:$G$109)</f>
-        <v>0</v>
-      </c>
-      <c r="W117" s="10">
-        <f>SUMIF($C$5:$C$109,U117,$I$5:$I$109)</f>
-        <v>0</v>
-      </c>
-      <c r="X117" s="10">
-        <f>SUMIF($C$5:$C$109,U117,$H$5:$H$109)</f>
-        <v>0</v>
-      </c>
-      <c r="Y117" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="W117" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X117" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y117" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Z117" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16955,7 +16854,7 @@
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
-      <c r="N118" s="124"/>
+      <c r="N118" s="105"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
@@ -16963,23 +16862,23 @@
       <c r="S118" s="6"/>
       <c r="U118" s="11"/>
       <c r="V118" s="10">
-        <f>SUMIF($C$5:$C$109,U118,$G$5:$G$109)</f>
-        <v>0</v>
-      </c>
-      <c r="W118" s="10">
-        <f>SUMIF($C$5:$C$109,U118,$I$5:$I$109)</f>
-        <v>0</v>
-      </c>
-      <c r="X118" s="10">
-        <f>SUMIF($C$5:$C$109,U118,$H$5:$H$109)</f>
-        <v>0</v>
-      </c>
-      <c r="Y118" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="W118" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X118" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y118" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Z118" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16988,7 +16887,7 @@
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
-      <c r="N119" s="124"/>
+      <c r="N119" s="105"/>
       <c r="O119" s="6"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
@@ -16996,23 +16895,23 @@
       <c r="S119" s="6"/>
       <c r="U119" s="11"/>
       <c r="V119" s="10">
-        <f>SUMIF($C$5:$C$109,U119,$G$5:$G$109)</f>
-        <v>0</v>
-      </c>
-      <c r="W119" s="10">
-        <f>SUMIF($C$5:$C$109,U119,$I$5:$I$109)</f>
-        <v>0</v>
-      </c>
-      <c r="X119" s="10">
-        <f>SUMIF($C$5:$C$109,U119,$H$5:$H$109)</f>
-        <v>0</v>
-      </c>
-      <c r="Y119" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="W119" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X119" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y119" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Z119" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17021,7 +16920,7 @@
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
-      <c r="N120" s="124"/>
+      <c r="N120" s="105"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
@@ -17029,23 +16928,23 @@
       <c r="S120" s="6"/>
       <c r="U120" s="11"/>
       <c r="V120" s="10">
-        <f>SUMIF($C$5:$C$109,U120,$G$5:$G$109)</f>
-        <v>0</v>
-      </c>
-      <c r="W120" s="10">
-        <f>SUMIF($C$5:$C$109,U120,$I$5:$I$109)</f>
-        <v>0</v>
-      </c>
-      <c r="X120" s="10">
-        <f>SUMIF($C$5:$C$109,U120,$H$5:$H$109)</f>
-        <v>0</v>
-      </c>
-      <c r="Y120" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="W120" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X120" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y120" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Z120" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17054,7 +16953,7 @@
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
-      <c r="N121" s="124"/>
+      <c r="N121" s="105"/>
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
@@ -17062,23 +16961,23 @@
       <c r="S121" s="6"/>
       <c r="U121" s="11"/>
       <c r="V121" s="10">
-        <f>SUMIF($C$5:$C$109,U121,$G$5:$G$109)</f>
-        <v>0</v>
-      </c>
-      <c r="W121" s="10">
-        <f>SUMIF($C$5:$C$109,U121,$I$5:$I$109)</f>
-        <v>0</v>
-      </c>
-      <c r="X121" s="10">
-        <f>SUMIF($C$5:$C$109,U121,$H$5:$H$109)</f>
-        <v>0</v>
-      </c>
-      <c r="Y121" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="W121" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X121" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y121" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Z121" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17087,7 +16986,7 @@
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
-      <c r="N122" s="124"/>
+      <c r="N122" s="105"/>
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
@@ -17099,7 +16998,7 @@
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
-      <c r="N123" s="124"/>
+      <c r="N123" s="105"/>
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
@@ -17111,7 +17010,7 @@
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
-      <c r="N124" s="124"/>
+      <c r="N124" s="105"/>
       <c r="O124" s="6"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
@@ -17123,7 +17022,7 @@
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
-      <c r="N125" s="124"/>
+      <c r="N125" s="105"/>
       <c r="O125" s="6"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
@@ -17135,7 +17034,7 @@
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
-      <c r="N126" s="124"/>
+      <c r="N126" s="105"/>
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
@@ -17147,7 +17046,7 @@
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
-      <c r="N127" s="124"/>
+      <c r="N127" s="105"/>
       <c r="O127" s="6"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
@@ -17159,7 +17058,7 @@
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
-      <c r="N128" s="124"/>
+      <c r="N128" s="105"/>
       <c r="O128" s="6"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
@@ -17171,7 +17070,7 @@
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
-      <c r="N129" s="124"/>
+      <c r="N129" s="105"/>
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
@@ -17183,7 +17082,7 @@
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
-      <c r="N130" s="124"/>
+      <c r="N130" s="105"/>
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
@@ -17195,7 +17094,7 @@
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
-      <c r="N131" s="124"/>
+      <c r="N131" s="105"/>
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
@@ -17207,7 +17106,7 @@
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
-      <c r="N132" s="124"/>
+      <c r="N132" s="105"/>
       <c r="O132" s="6"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
@@ -17219,7 +17118,7 @@
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
-      <c r="N133" s="124"/>
+      <c r="N133" s="105"/>
       <c r="O133" s="6"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
@@ -17231,7 +17130,7 @@
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
-      <c r="N134" s="124"/>
+      <c r="N134" s="105"/>
       <c r="O134" s="6"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
@@ -17243,7 +17142,7 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
-      <c r="N135" s="124"/>
+      <c r="N135" s="105"/>
       <c r="O135" s="6"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
@@ -17255,7 +17154,7 @@
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
-      <c r="N136" s="124"/>
+      <c r="N136" s="105"/>
       <c r="O136" s="6"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
@@ -17267,7 +17166,7 @@
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
-      <c r="N137" s="124"/>
+      <c r="N137" s="105"/>
       <c r="O137" s="6"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
@@ -17279,7 +17178,7 @@
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
-      <c r="N138" s="124"/>
+      <c r="N138" s="105"/>
       <c r="O138" s="6"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
@@ -17291,7 +17190,7 @@
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
-      <c r="N139" s="124"/>
+      <c r="N139" s="105"/>
       <c r="O139" s="6"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
@@ -17303,7 +17202,7 @@
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
-      <c r="N140" s="124"/>
+      <c r="N140" s="105"/>
       <c r="O140" s="6"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
@@ -17315,7 +17214,7 @@
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6"/>
-      <c r="N141" s="124"/>
+      <c r="N141" s="105"/>
       <c r="O141" s="6"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
@@ -17327,7 +17226,7 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
-      <c r="N142" s="124"/>
+      <c r="N142" s="105"/>
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
@@ -17339,7 +17238,7 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
-      <c r="N143" s="124"/>
+      <c r="N143" s="105"/>
       <c r="O143" s="6"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
@@ -17351,7 +17250,7 @@
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
-      <c r="N144" s="124"/>
+      <c r="N144" s="105"/>
       <c r="O144" s="6"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
@@ -17363,7 +17262,7 @@
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6"/>
-      <c r="N145" s="124"/>
+      <c r="N145" s="105"/>
       <c r="O145" s="6"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
@@ -17375,7 +17274,7 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
-      <c r="N146" s="124"/>
+      <c r="N146" s="105"/>
       <c r="O146" s="6"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
@@ -17387,7 +17286,7 @@
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
-      <c r="N147" s="124"/>
+      <c r="N147" s="105"/>
       <c r="O147" s="6"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
@@ -17399,7 +17298,7 @@
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
-      <c r="N148" s="124"/>
+      <c r="N148" s="105"/>
       <c r="O148" s="6"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
@@ -17411,7 +17310,7 @@
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
-      <c r="N149" s="124"/>
+      <c r="N149" s="105"/>
       <c r="O149" s="6"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
@@ -17423,7 +17322,7 @@
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
-      <c r="N150" s="124"/>
+      <c r="N150" s="105"/>
       <c r="O150" s="6"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
@@ -17435,7 +17334,7 @@
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
       <c r="M151" s="6"/>
-      <c r="N151" s="124"/>
+      <c r="N151" s="105"/>
       <c r="O151" s="6"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
@@ -17447,7 +17346,7 @@
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
-      <c r="N152" s="124"/>
+      <c r="N152" s="105"/>
       <c r="O152" s="6"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
@@ -17459,7 +17358,7 @@
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
-      <c r="N153" s="124"/>
+      <c r="N153" s="105"/>
       <c r="O153" s="6"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
@@ -17471,7 +17370,7 @@
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
-      <c r="N154" s="124"/>
+      <c r="N154" s="105"/>
       <c r="O154" s="6"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
@@ -17483,7 +17382,7 @@
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
-      <c r="N155" s="124"/>
+      <c r="N155" s="105"/>
       <c r="O155" s="6"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
@@ -17495,7 +17394,7 @@
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
-      <c r="N156" s="124"/>
+      <c r="N156" s="105"/>
       <c r="O156" s="6"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
@@ -17507,7 +17406,7 @@
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
-      <c r="N157" s="124"/>
+      <c r="N157" s="105"/>
       <c r="O157" s="6"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
@@ -17519,7 +17418,7 @@
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
       <c r="M158" s="6"/>
-      <c r="N158" s="124"/>
+      <c r="N158" s="105"/>
       <c r="O158" s="6"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
@@ -17531,7 +17430,7 @@
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="6"/>
-      <c r="N159" s="124"/>
+      <c r="N159" s="105"/>
       <c r="O159" s="6"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
@@ -17543,7 +17442,7 @@
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
       <c r="M160" s="6"/>
-      <c r="N160" s="124"/>
+      <c r="N160" s="105"/>
       <c r="O160" s="6"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
@@ -17555,7 +17454,7 @@
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
       <c r="M161" s="6"/>
-      <c r="N161" s="124"/>
+      <c r="N161" s="105"/>
       <c r="O161" s="6"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
@@ -17567,7 +17466,7 @@
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
-      <c r="N162" s="124"/>
+      <c r="N162" s="105"/>
       <c r="O162" s="6"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
@@ -17579,7 +17478,7 @@
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
       <c r="M163" s="6"/>
-      <c r="N163" s="124"/>
+      <c r="N163" s="105"/>
       <c r="O163" s="6"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
@@ -17591,7 +17490,7 @@
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
       <c r="M164" s="6"/>
-      <c r="N164" s="124"/>
+      <c r="N164" s="105"/>
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
@@ -17603,7 +17502,7 @@
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
       <c r="M165" s="6"/>
-      <c r="N165" s="124"/>
+      <c r="N165" s="105"/>
       <c r="O165" s="6"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
@@ -17615,7 +17514,7 @@
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
       <c r="M166" s="6"/>
-      <c r="N166" s="124"/>
+      <c r="N166" s="105"/>
       <c r="O166" s="6"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
@@ -17627,7 +17526,7 @@
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
-      <c r="N167" s="124"/>
+      <c r="N167" s="105"/>
       <c r="O167" s="6"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
@@ -17639,7 +17538,7 @@
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
-      <c r="N168" s="124"/>
+      <c r="N168" s="105"/>
       <c r="O168" s="6"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
@@ -17651,7 +17550,7 @@
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
-      <c r="N169" s="124"/>
+      <c r="N169" s="105"/>
       <c r="O169" s="6"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
@@ -17663,7 +17562,7 @@
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
-      <c r="N170" s="124"/>
+      <c r="N170" s="105"/>
       <c r="O170" s="6"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
@@ -17675,7 +17574,7 @@
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
       <c r="M171" s="6"/>
-      <c r="N171" s="124"/>
+      <c r="N171" s="105"/>
       <c r="O171" s="6"/>
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
@@ -17687,7 +17586,7 @@
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
       <c r="M172" s="6"/>
-      <c r="N172" s="124"/>
+      <c r="N172" s="105"/>
       <c r="O172" s="6"/>
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
@@ -17699,7 +17598,7 @@
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
       <c r="M173" s="6"/>
-      <c r="N173" s="124"/>
+      <c r="N173" s="105"/>
       <c r="O173" s="6"/>
       <c r="P173" s="6"/>
       <c r="Q173" s="6"/>
@@ -17711,7 +17610,7 @@
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
       <c r="M174" s="6"/>
-      <c r="N174" s="124"/>
+      <c r="N174" s="105"/>
       <c r="O174" s="6"/>
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
@@ -17723,7 +17622,7 @@
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
       <c r="M175" s="6"/>
-      <c r="N175" s="124"/>
+      <c r="N175" s="105"/>
       <c r="O175" s="6"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
@@ -17735,7 +17634,7 @@
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
       <c r="M176" s="6"/>
-      <c r="N176" s="124"/>
+      <c r="N176" s="105"/>
       <c r="O176" s="6"/>
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
@@ -17747,7 +17646,7 @@
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
       <c r="M177" s="6"/>
-      <c r="N177" s="124"/>
+      <c r="N177" s="105"/>
       <c r="O177" s="6"/>
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
@@ -17759,7 +17658,7 @@
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
-      <c r="N178" s="124"/>
+      <c r="N178" s="105"/>
       <c r="O178" s="6"/>
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
@@ -17771,7 +17670,7 @@
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
       <c r="M179" s="6"/>
-      <c r="N179" s="124"/>
+      <c r="N179" s="105"/>
       <c r="O179" s="6"/>
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
@@ -17783,7 +17682,7 @@
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
       <c r="M180" s="6"/>
-      <c r="N180" s="124"/>
+      <c r="N180" s="105"/>
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
@@ -17795,7 +17694,7 @@
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
       <c r="M181" s="6"/>
-      <c r="N181" s="124"/>
+      <c r="N181" s="105"/>
       <c r="O181" s="6"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
@@ -17807,7 +17706,7 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
       <c r="M182" s="6"/>
-      <c r="N182" s="124"/>
+      <c r="N182" s="105"/>
       <c r="O182" s="6"/>
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
@@ -17819,7 +17718,7 @@
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
-      <c r="N183" s="124"/>
+      <c r="N183" s="105"/>
       <c r="O183" s="6"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
@@ -17831,7 +17730,7 @@
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
-      <c r="N184" s="124"/>
+      <c r="N184" s="105"/>
       <c r="O184" s="6"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
@@ -17843,7 +17742,7 @@
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
-      <c r="N185" s="124"/>
+      <c r="N185" s="105"/>
       <c r="O185" s="6"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
@@ -17855,7 +17754,7 @@
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
-      <c r="N186" s="124"/>
+      <c r="N186" s="105"/>
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
@@ -17867,7 +17766,7 @@
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="6"/>
-      <c r="N187" s="124"/>
+      <c r="N187" s="105"/>
       <c r="O187" s="6"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
@@ -17879,7 +17778,7 @@
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
-      <c r="N188" s="124"/>
+      <c r="N188" s="105"/>
       <c r="O188" s="6"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
@@ -17891,7 +17790,7 @@
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
       <c r="M189" s="6"/>
-      <c r="N189" s="124"/>
+      <c r="N189" s="105"/>
       <c r="O189" s="6"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
@@ -17903,7 +17802,7 @@
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
       <c r="M190" s="6"/>
-      <c r="N190" s="124"/>
+      <c r="N190" s="105"/>
       <c r="O190" s="6"/>
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
@@ -17915,7 +17814,7 @@
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
       <c r="M191" s="6"/>
-      <c r="N191" s="124"/>
+      <c r="N191" s="105"/>
       <c r="O191" s="6"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
@@ -17927,7 +17826,7 @@
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
       <c r="M192" s="6"/>
-      <c r="N192" s="124"/>
+      <c r="N192" s="105"/>
       <c r="O192" s="6"/>
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
@@ -17939,7 +17838,7 @@
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
       <c r="M193" s="6"/>
-      <c r="N193" s="124"/>
+      <c r="N193" s="105"/>
       <c r="O193" s="6"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
@@ -17961,178 +17860,178 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D110:D65541">
-    <cfRule type="expression" dxfId="86" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="55" stopIfTrue="1">
       <formula>D110="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="56" stopIfTrue="1">
       <formula>D110="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="57" stopIfTrue="1">
       <formula>OR(D110="終了",D110="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:XFD12 C6:XFD6 A15:XFD15 C13:XFD14 A18:XFD18 C16:XFD17 A21:XFD109 C19:XFD20 C7:C11">
-    <cfRule type="expression" dxfId="83" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="58" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="59" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="60" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B65541">
-    <cfRule type="expression" dxfId="80" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="61" stopIfTrue="1">
       <formula>D110="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="62" stopIfTrue="1">
       <formula>D110="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="63" stopIfTrue="1">
       <formula>OR(D110="終了",D110="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:C65541">
-    <cfRule type="expression" dxfId="77" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
       <formula>D110="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
       <formula>D110="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
       <formula>OR(D110="終了",D110="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110:S65541">
-    <cfRule type="expression" dxfId="74" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
       <formula>$D110="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
       <formula>$D110="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="69" stopIfTrue="1">
       <formula>OR($D110="終了",$D110="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="71" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="52" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="53" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="54" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B14">
-    <cfRule type="expression" dxfId="68" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
       <formula>$D13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="50" stopIfTrue="1">
       <formula>$D13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="51" stopIfTrue="1">
       <formula>OR($D13="終了",$D13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B17">
-    <cfRule type="expression" dxfId="65" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="46" stopIfTrue="1">
       <formula>$D16="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="47" stopIfTrue="1">
       <formula>$D16="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="48" stopIfTrue="1">
       <formula>OR($D16="終了",$D16="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="expression" dxfId="62" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="43" stopIfTrue="1">
       <formula>$D19="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="44" stopIfTrue="1">
       <formula>$D19="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="45" stopIfTrue="1">
       <formula>OR($D19="終了",$D19="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD5">
-    <cfRule type="expression" dxfId="59" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="37" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="38" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="39" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:XFD7">
-    <cfRule type="expression" dxfId="53" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="34" stopIfTrue="1">
       <formula>$D7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="35" stopIfTrue="1">
       <formula>$D7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="36" stopIfTrue="1">
       <formula>OR($D7="終了",$D7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="31" stopIfTrue="1">
       <formula>$D7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="32" stopIfTrue="1">
       <formula>$D7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="33" stopIfTrue="1">
       <formula>OR($D7="終了",$D7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:XFD8">
-    <cfRule type="expression" dxfId="47" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="44" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:XFD11">
-    <cfRule type="expression" dxfId="41" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
       <formula>$D11="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
       <formula>$D11="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
       <formula>OR($D11="終了",$D11="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11">
-    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
       <formula>$D11="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
       <formula>$D11="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
       <formula>OR($D11="終了",$D11="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18159,24 +18058,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:XFD10">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>$D10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>$D10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>OR($D10="終了",$D10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>$D10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>$D10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>OR($D10="終了",$D10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18214,53 +18113,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="125"/>
       <c r="J2" s="23" t="s">
         <v>67</v>
       </c>
@@ -18284,15 +18183,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="113"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="125"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>0</v>
@@ -18305,15 +18204,15 @@
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="113"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="125"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -21724,57 +21623,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22588,13 +22487,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/55班スプリントバックログ.xlsx
+++ b/55班スプリントバックログ.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\school\Documents\Unity\4\SecondTeam\2017_graduation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="3888" yWindow="3048" windowWidth="19236" windowHeight="12120" tabRatio="658" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="251">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -2549,6 +2549,20 @@
     <rPh sb="11" eb="13">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>α版優先</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EX</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3745,7 +3759,28 @@
     <cellStyle name="標準_チーム編成" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="110">
+  <dxfs count="131">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -3890,6 +3925,132 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -4583,8 +4744,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="109"/>
-      <tableStyleElement type="headerRow" dxfId="108"/>
+      <tableStyleElement type="wholeTable" dxfId="130"/>
+      <tableStyleElement type="headerRow" dxfId="129"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -5985,7 +6146,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>122</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6071,16 +6232,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>122</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>73</c:v>
@@ -6089,7 +6250,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>36</c:v>
@@ -6521,14 +6682,13 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第２）'!$U$141:$U$150</c:f>
+              <c:f>'スプリントバックログ(第２）'!$U$148:$U$157</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6542,15 +6702,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第２）'!$W$141:$W$150</c:f>
+              <c:f>'スプリントバックログ(第２）'!$W$148:$W$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6646,14 +6806,13 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第２）'!$U$141:$U$150</c:f>
+              <c:f>'スプリントバックログ(第２）'!$U$148:$U$157</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6667,12 +6826,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第２）'!$X$141:$X$150</c:f>
+              <c:f>'スプリントバックログ(第２）'!$X$148:$X$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
@@ -6771,19 +6930,18 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第２）'!$V$141:$V$142</c:f>
+              <c:f>'スプリントバックログ(第２）'!$V$148:$V$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>64</c:v>
@@ -6802,7 +6960,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第２）'!$Z$140</c:f>
+              <c:f>'スプリントバックログ(第２）'!$Z$147</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6860,22 +7018,21 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第２）'!$Z$141:$Z$150</c:f>
+              <c:f>'スプリントバックログ(第２）'!$Z$148:$Z$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -8448,8 +8605,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>607695</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8480,13 +8637,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>607695</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8674,6 +8831,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8709,6 +8883,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8891,17 +9082,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="41" customWidth="1"/>
-    <col min="3" max="3" width="47.625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="53.125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="53.109375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="40" customWidth="1"/>
     <col min="6" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="19.2">
       <c r="A1" s="113" t="s">
         <v>75</v>
       </c>
@@ -8917,7 +9108,7 @@
       <c r="E2" s="114"/>
     </row>
     <row r="3" spans="1:5" ht="7.5" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:5" s="46" customFormat="1" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" s="46" customFormat="1" ht="13.8" thickBot="1">
       <c r="A4" s="42"/>
       <c r="B4" s="43" t="s">
         <v>38</v>
@@ -10579,22 +10770,22 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="6.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
-    <col min="10" max="13" width="4.75" style="7" customWidth="1"/>
-    <col min="14" max="17" width="4.625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="2.875" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.88671875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="6.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
+    <col min="10" max="13" width="4.77734375" style="7" customWidth="1"/>
+    <col min="14" max="17" width="4.6640625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="2.88671875" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.25" customWidth="1"/>
-    <col min="30" max="30" width="4.75" customWidth="1"/>
-    <col min="31" max="31" width="3.75" customWidth="1"/>
+    <col min="29" max="29" width="14.21875" customWidth="1"/>
+    <col min="30" max="30" width="4.77734375" customWidth="1"/>
+    <col min="31" max="31" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1">
@@ -14774,112 +14965,112 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="107" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="16" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="17" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="18" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:XFD17 C5:XFD5 C6:D16 I6:I16 Q6:XFD16 A22:XFD104 B21:XFD21 C18:XFD20">
-    <cfRule type="expression" dxfId="104" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="19" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="20" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="21" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="101" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="22" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="23" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="24" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="98" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="25" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="26" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="27" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:Q65536">
-    <cfRule type="expression" dxfId="95" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="28" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="29" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="30" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B16">
-    <cfRule type="expression" dxfId="92" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="13" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="14" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="15" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P16">
-    <cfRule type="expression" dxfId="89" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="1" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="2" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="3" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B20 A21">
-    <cfRule type="expression" dxfId="86" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
       <formula>$D18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="11" stopIfTrue="1">
       <formula>$D18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="12" stopIfTrue="1">
       <formula>OR($D18="終了",$D18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F16">
-    <cfRule type="expression" dxfId="83" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="8" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="9" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H16">
-    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="5" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="6" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14893,28 +15084,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z222"/>
+  <dimension ref="A1:Z229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="6.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
-    <col min="10" max="13" width="4.75" style="7" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="106" customWidth="1"/>
-    <col min="15" max="19" width="4.625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="2.875" customWidth="1"/>
-    <col min="31" max="31" width="14.25" customWidth="1"/>
-    <col min="32" max="32" width="4.75" customWidth="1"/>
-    <col min="33" max="33" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.88671875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="6.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
+    <col min="10" max="13" width="4.77734375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="106" customWidth="1"/>
+    <col min="15" max="19" width="4.6640625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="2.88671875" customWidth="1"/>
+    <col min="31" max="31" width="14.21875" customWidth="1"/>
+    <col min="32" max="32" width="4.77734375" customWidth="1"/>
+    <col min="33" max="33" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1">
@@ -15011,19 +15202,19 @@
       <c r="I3" s="126"/>
       <c r="J3" s="20">
         <f ca="1">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K3" s="20">
         <f t="shared" ref="K3:S3" ca="1" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" ca="1" si="0"/>
@@ -15035,7 +15226,7 @@
       </c>
       <c r="P3" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" ca="1" si="0"/>
@@ -15061,8 +15252,8 @@
       <c r="H4" s="131"/>
       <c r="I4" s="126"/>
       <c r="J4" s="21">
-        <f ca="1">SUM(J5:J138)</f>
-        <v>122</v>
+        <f ca="1">SUM(J5:J145)</f>
+        <v>123</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
@@ -15081,7 +15272,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="12" t="str">
-        <f t="shared" ref="D5:D103" si="1">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
+        <f t="shared" ref="D5:D110" si="1">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E5" s="4"/>
@@ -15089,7 +15280,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="12" t="str">
-        <f t="shared" ref="I5:J5" ca="1" si="2">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:Q5)),"")</f>
+        <f t="shared" ref="I5:J20" ca="1" si="2">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:Q5)),"")</f>
         <v/>
       </c>
       <c r="J5" s="12" t="str">
@@ -15117,22 +15308,27 @@
         <v>101</v>
       </c>
       <c r="D6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E6" s="4">
         <v>43049</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>43050</v>
+      </c>
       <c r="G6" s="19">
         <v>3</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>1</v>
+      </c>
       <c r="I6" s="12">
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="J6" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
@@ -15167,6 +15363,7 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="12">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="J7" s="12">
@@ -15205,6 +15402,7 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="12">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="J8" s="12">
@@ -15243,6 +15441,7 @@
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="12">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="J9" s="12">
@@ -15281,6 +15480,7 @@
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="12">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="J10" s="12">
@@ -15319,6 +15519,7 @@
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="12">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="J11" s="12">
@@ -15335,23 +15536,27 @@
       <c r="S11" s="22"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="16"/>
-      <c r="B12" s="85"/>
+      <c r="A12" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>249</v>
+      </c>
       <c r="C12" s="18"/>
       <c r="D12" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="12" t="str">
-        <f t="shared" ref="I12:J60" ca="1" si="3">IF(ISBLANK(J12)=FALSE,OFFSET(I12,0,COUNTA(J12:Q12)),"")</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J12" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="J12" ca="1" si="3">IF(ISBLANK(K12)=FALSE,OFFSET(J12,0,COUNTA(K12:R12)),"")</f>
         <v/>
       </c>
       <c r="K12" s="22"/>
@@ -15365,25 +15570,23 @@
       <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="102"/>
-      <c r="B13" s="109" t="s">
-        <v>88</v>
-      </c>
+      <c r="A13" s="16"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="18"/>
       <c r="D13" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J13" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="J13" ca="1" si="4">IF(ISBLANK(K13)=FALSE,OFFSET(J13,0,COUNTA(K13:R13)),"")</f>
         <v/>
       </c>
       <c r="K13" s="22"/>
@@ -15397,36 +15600,24 @@
       <c r="S13" s="22"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="102">
-        <v>1</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="A14" s="16"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>完了</v>
-      </c>
-      <c r="E14" s="4">
-        <v>43049</v>
-      </c>
-      <c r="F14" s="4">
-        <v>43049</v>
-      </c>
-      <c r="G14" s="19">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f t="shared" ref="J14" ca="1" si="5">IF(ISBLANK(K14)=FALSE,OFFSET(J14,0,COUNTA(K14:R14)),"")</f>
+        <v/>
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
@@ -15439,36 +15630,24 @@
       <c r="S14" s="22"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="102">
-        <v>2</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="A15" s="16"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>完了</v>
-      </c>
-      <c r="E15" s="4">
-        <v>43049</v>
-      </c>
-      <c r="F15" s="4">
-        <v>43049</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f t="shared" ref="J15" ca="1" si="6">IF(ISBLANK(K15)=FALSE,OFFSET(J15,0,COUNTA(K15:R15)),"")</f>
+        <v/>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
@@ -15481,36 +15660,24 @@
       <c r="S15" s="22"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="102">
-        <v>3</v>
-      </c>
-      <c r="B16" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="A16" s="16"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>完了</v>
-      </c>
-      <c r="E16" s="4">
-        <v>43049</v>
-      </c>
-      <c r="F16" s="4">
-        <v>43049</v>
-      </c>
-      <c r="G16" s="19">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J16" s="12" t="str">
+        <f t="shared" ref="J16" ca="1" si="7">IF(ISBLANK(K16)=FALSE,OFFSET(J16,0,COUNTA(K16:R16)),"")</f>
+        <v/>
       </c>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -15523,36 +15690,24 @@
       <c r="S16" s="22"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="102">
-        <v>4</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="A17" s="16"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>完了</v>
-      </c>
-      <c r="E17" s="4">
-        <v>43049</v>
-      </c>
-      <c r="F17" s="4">
-        <v>43049</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J17" s="12" t="str">
+        <f t="shared" ref="J17" ca="1" si="8">IF(ISBLANK(K17)=FALSE,OFFSET(J17,0,COUNTA(K17:R17)),"")</f>
+        <v/>
       </c>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -15565,32 +15720,24 @@
       <c r="S17" s="22"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="102">
-        <v>5</v>
-      </c>
-      <c r="B18" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
-      </c>
-      <c r="E18" s="4">
-        <v>43056</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
+      <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="12">
-        <v>1</v>
-      </c>
-      <c r="J18" s="12">
-        <v>1</v>
+      <c r="I18" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J18" s="12" t="str">
+        <f t="shared" ref="J18" ca="1" si="9">IF(ISBLANK(K18)=FALSE,OFFSET(J18,0,COUNTA(K18:R18)),"")</f>
+        <v/>
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
@@ -15603,32 +15750,24 @@
       <c r="S18" s="22"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="102">
-        <v>6</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
-      </c>
-      <c r="E19" s="4">
-        <v>43056</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
+      <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="12">
-        <v>1</v>
-      </c>
-      <c r="J19" s="12">
-        <v>1</v>
+      <c r="I19" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J19" s="12" t="str">
+        <f t="shared" ref="I19:J67" ca="1" si="10">IF(ISBLANK(K19)=FALSE,OFFSET(J19,0,COUNTA(K19:R19)),"")</f>
+        <v/>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -15641,32 +15780,26 @@
       <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="102">
-        <v>7</v>
-      </c>
-      <c r="B20" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="A20" s="102"/>
+      <c r="B20" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="18"/>
       <c r="D20" s="12" t="str">
         <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
-      <c r="E20" s="4">
-        <v>43056</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="19">
-        <v>1</v>
-      </c>
+      <c r="G20" s="19"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="12">
-        <v>1</v>
-      </c>
-      <c r="J20" s="12">
-        <v>1</v>
+      <c r="I20" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J20" s="12" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -15680,31 +15813,36 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="102">
-        <v>8</v>
-      </c>
-      <c r="B21" s="112" t="s">
-        <v>111</v>
+        <v>1</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D21" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E21" s="4">
-        <v>43060</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>43049</v>
+      </c>
+      <c r="F21" s="4">
+        <v>43049</v>
+      </c>
       <c r="G21" s="19">
-        <v>2</v>
-      </c>
-      <c r="H21" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1</v>
+      </c>
       <c r="I21" s="12">
-        <v>2</v>
+        <f t="shared" ref="I21:I84" ca="1" si="11">IF(ISBLANK(J21)=FALSE,OFFSET(I21,0,COUNTA(J21:Q21)),"")</f>
+        <v>0</v>
       </c>
       <c r="J21" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -15716,33 +15854,38 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
     </row>
-    <row r="22" spans="1:19" ht="24">
+    <row r="22" spans="1:19">
       <c r="A22" s="102">
-        <v>9</v>
-      </c>
-      <c r="B22" s="112" t="s">
-        <v>110</v>
+        <v>2</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>105</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D22" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E22" s="4">
-        <v>43060</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>43049</v>
+      </c>
+      <c r="F22" s="4">
+        <v>43049</v>
+      </c>
       <c r="G22" s="19">
-        <v>2</v>
-      </c>
-      <c r="H22" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1</v>
+      </c>
       <c r="I22" s="12">
-        <v>2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="J22" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
@@ -15754,33 +15897,38 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
     </row>
-    <row r="23" spans="1:19" ht="36">
+    <row r="23" spans="1:19">
       <c r="A23" s="102">
-        <v>10</v>
-      </c>
-      <c r="B23" s="112" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>106</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D23" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E23" s="4">
-        <v>43060</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>43049</v>
+      </c>
+      <c r="F23" s="4">
+        <v>43049</v>
+      </c>
       <c r="G23" s="19">
-        <v>2</v>
-      </c>
-      <c r="H23" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1</v>
+      </c>
       <c r="I23" s="12">
-        <v>2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="J23" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
@@ -15794,31 +15942,36 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="102">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D24" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E24" s="4">
-        <v>43053</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>43049</v>
+      </c>
+      <c r="F24" s="4">
+        <v>43049</v>
+      </c>
       <c r="G24" s="19">
-        <v>2</v>
-      </c>
-      <c r="H24" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="19">
+        <v>1</v>
+      </c>
       <c r="I24" s="12">
-        <v>2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="J24" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
@@ -15832,35 +15985,32 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="102">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B25" s="85" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D25" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>完了</v>
+        <v>未着手</v>
       </c>
       <c r="E25" s="4">
-        <v>43049</v>
-      </c>
-      <c r="F25" s="4">
-        <v>43049</v>
-      </c>
+        <v>43056</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="19">
         <v>1</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="19"/>
+      <c r="I25" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
       <c r="J25" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
@@ -15874,32 +16024,29 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="102">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B26" s="85" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>完了</v>
+        <v>未着手</v>
       </c>
       <c r="E26" s="4">
-        <v>43049</v>
-      </c>
-      <c r="F26" s="4">
-        <v>43049</v>
-      </c>
+        <v>43056</v>
+      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="19">
         <v>1</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="19"/>
+      <c r="I26" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0</v>
       </c>
       <c r="J26" s="12">
         <v>1</v>
@@ -15916,33 +16063,32 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="102">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>作業中</v>
+        <v>未着手</v>
       </c>
       <c r="E27" s="4">
-        <v>43053</v>
-      </c>
-      <c r="F27" s="4">
-        <v>43053</v>
-      </c>
+        <v>43056</v>
+      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="12">
-        <v>2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="J27" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -15956,35 +16102,32 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="102">
-        <v>15</v>
-      </c>
-      <c r="B28" s="85" t="s">
-        <v>118</v>
+        <v>8</v>
+      </c>
+      <c r="B28" s="112" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D28" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>完了</v>
+        <v>未着手</v>
       </c>
       <c r="E28" s="4">
-        <v>43053</v>
-      </c>
-      <c r="F28" s="4">
-        <v>43053</v>
-      </c>
+        <v>43060</v>
+      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="19">
         <v>2</v>
       </c>
-      <c r="H28" s="19">
-        <v>1</v>
-      </c>
+      <c r="H28" s="19"/>
       <c r="I28" s="12">
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="J28" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
@@ -15996,12 +16139,12 @@
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" ht="24">
       <c r="A29" s="102">
-        <v>16</v>
-      </c>
-      <c r="B29" s="85" t="s">
-        <v>138</v>
+        <v>9</v>
+      </c>
+      <c r="B29" s="112" t="s">
+        <v>110</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>135</v>
@@ -16011,7 +16154,7 @@
         <v>未着手</v>
       </c>
       <c r="E29" s="4">
-        <v>43056</v>
+        <v>43060</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="19">
@@ -16019,6 +16162,7 @@
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>2</v>
       </c>
       <c r="J29" s="12">
@@ -16034,12 +16178,12 @@
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" ht="48">
       <c r="A30" s="102">
-        <v>17</v>
-      </c>
-      <c r="B30" s="85" t="s">
-        <v>248</v>
+        <v>10</v>
+      </c>
+      <c r="B30" s="112" t="s">
+        <v>112</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>135</v>
@@ -16048,17 +16192,20 @@
         <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4">
+        <v>43060</v>
+      </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="19"/>
+      <c r="G30" s="19">
+        <v>2</v>
+      </c>
       <c r="H30" s="19"/>
-      <c r="I30" s="12" t="str">
-        <f t="shared" ref="I30:J35" ca="1" si="4">IF(ISBLANK(J30)=FALSE,OFFSET(I30,0,COUNTA(J30:Q30)),"")</f>
-        <v/>
-      </c>
-      <c r="J30" s="12" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="I30" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J30" s="12">
+        <v>2</v>
       </c>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
@@ -16071,24 +16218,33 @@
       <c r="S30" s="22"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="102"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="102">
+        <v>11</v>
+      </c>
+      <c r="B31" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D31" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E31" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43053</v>
+      </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="19"/>
+      <c r="G31" s="19">
+        <v>2</v>
+      </c>
       <c r="H31" s="19"/>
-      <c r="I31" s="12" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J31" s="12" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="I31" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J31" s="12">
+        <v>2</v>
       </c>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
@@ -16101,26 +16257,37 @@
       <c r="S31" s="22"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="102"/>
-      <c r="B32" s="103" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="18"/>
+      <c r="A32" s="102">
+        <v>12</v>
+      </c>
+      <c r="B32" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D32" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="12" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J32" s="12" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1</v>
+      </c>
+      <c r="H32" s="19">
+        <v>1</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0</v>
       </c>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -16134,31 +16301,36 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="102">
+        <v>13</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
+      </c>
+      <c r="E33" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F33" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G33" s="19">
         <v>1</v>
       </c>
-      <c r="B33" s="85" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
-      </c>
-      <c r="E33" s="4">
-        <v>43060</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="19">
-        <v>3</v>
-      </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="19">
+        <v>1</v>
+      </c>
       <c r="I33" s="12">
-        <v>3</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="J33" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
@@ -16172,31 +16344,34 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="102">
+        <v>14</v>
+      </c>
+      <c r="B34" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
+      </c>
+      <c r="E34" s="4">
+        <v>43053</v>
+      </c>
+      <c r="F34" s="4">
+        <v>43053</v>
+      </c>
+      <c r="G34" s="19">
         <v>2</v>
-      </c>
-      <c r="B34" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
-      </c>
-      <c r="E34" s="4">
-        <v>43049</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="19">
-        <v>1</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="12">
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="J34" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
@@ -16209,24 +16384,37 @@
       <c r="S34" s="22"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="102"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="102">
+        <v>15</v>
+      </c>
+      <c r="B35" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D35" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="12" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J35" s="12" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
+      </c>
+      <c r="E35" s="4">
+        <v>43053</v>
+      </c>
+      <c r="F35" s="4">
+        <v>43053</v>
+      </c>
+      <c r="G35" s="19">
+        <v>2</v>
+      </c>
+      <c r="H35" s="19">
+        <v>1</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="12">
+        <v>1</v>
       </c>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
@@ -16239,24 +16427,33 @@
       <c r="S35" s="22"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="16"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="102">
+        <v>16</v>
+      </c>
+      <c r="B36" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D36" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E36" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43056</v>
+      </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="19"/>
+      <c r="G36" s="19">
+        <v>2</v>
+      </c>
       <c r="H36" s="19"/>
-      <c r="I36" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J36" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+      <c r="I36" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J36" s="12">
+        <v>2</v>
       </c>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
@@ -16269,11 +16466,15 @@
       <c r="S36" s="22"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="102"/>
-      <c r="B37" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="18"/>
+      <c r="A37" s="102">
+        <v>17</v>
+      </c>
+      <c r="B37" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D37" s="12" t="str">
         <f t="shared" si="1"/>
         <v>未着手</v>
@@ -16283,11 +16484,11 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J37" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="I37:J42" ca="1" si="12">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:R37)),"")</f>
         <v/>
       </c>
       <c r="K37" s="22"/>
@@ -16301,32 +16502,24 @@
       <c r="S37" s="22"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="102">
-        <v>1</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>143</v>
-      </c>
+      <c r="A38" s="102"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
-      </c>
-      <c r="E38" s="4">
-        <v>43056</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="19">
-        <v>3</v>
-      </c>
+      <c r="G38" s="19"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="12">
-        <v>3</v>
-      </c>
-      <c r="J38" s="12">
-        <v>3</v>
+      <c r="I38" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J38" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
@@ -16339,32 +16532,26 @@
       <c r="S38" s="22"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="102">
-        <v>2</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="A39" s="102"/>
+      <c r="B39" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="18"/>
       <c r="D39" s="12" t="str">
         <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
-      <c r="E39" s="4">
-        <v>43063</v>
-      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="19">
-        <v>3</v>
-      </c>
+      <c r="G39" s="19"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="12">
-        <v>3</v>
-      </c>
-      <c r="J39" s="12">
-        <v>3</v>
+      <c r="I39" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J39" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -16378,10 +16565,10 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="102">
-        <v>3</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>142</v>
+        <v>1</v>
+      </c>
+      <c r="B40" s="85" t="s">
+        <v>180</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>90</v>
@@ -16391,7 +16578,7 @@
         <v>未着手</v>
       </c>
       <c r="E40" s="4">
-        <v>43063</v>
+        <v>43060</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="19">
@@ -16399,6 +16586,7 @@
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
       <c r="J40" s="12">
@@ -16416,33 +16604,40 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="102">
-        <v>4</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>160</v>
+        <v>2</v>
+      </c>
+      <c r="B41" s="85" t="s">
+        <v>247</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D41" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E41" s="4">
-        <v>43074</v>
-      </c>
-      <c r="F41" s="4"/>
+        <v>43049</v>
+      </c>
+      <c r="F41" s="4">
+        <v>43056</v>
+      </c>
       <c r="G41" s="19">
         <v>3</v>
       </c>
-      <c r="H41" s="19"/>
+      <c r="H41" s="19">
+        <v>4</v>
+      </c>
       <c r="I41" s="12">
-        <v>3</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="J41" s="12">
         <v>3</v>
       </c>
-      <c r="K41" s="22"/>
+      <c r="K41" s="22">
+        <v>0</v>
+      </c>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="104"/>
@@ -16453,32 +16648,24 @@
       <c r="S41" s="22"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="102">
-        <v>5</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>143</v>
-      </c>
+      <c r="A42" s="102"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
-      </c>
-      <c r="E42" s="4">
-        <v>43074</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="19">
-        <v>3</v>
-      </c>
+      <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="12">
-        <v>3</v>
-      </c>
-      <c r="J42" s="12">
-        <v>3</v>
+      <c r="I42" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J42" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
@@ -16491,8 +16678,8 @@
       <c r="S42" s="22"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="102"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="18"/>
       <c r="D43" s="12" t="str">
         <f t="shared" si="1"/>
@@ -16502,8 +16689,14 @@
       <c r="F43" s="4"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
+      <c r="I43" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J43" s="12" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
@@ -16515,23 +16708,25 @@
       <c r="S43" s="22"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="16"/>
-      <c r="B44" s="85"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="109" t="s">
+        <v>92</v>
+      </c>
       <c r="C44" s="18"/>
       <c r="D44" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J44" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K44" s="22"/>
@@ -16545,28 +16740,41 @@
       <c r="S44" s="22"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="102"/>
-      <c r="B45" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="18"/>
+      <c r="A45" s="102">
+        <v>1</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="D45" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J45" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="K45" s="22"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
+      </c>
+      <c r="E45" s="4">
+        <v>43056</v>
+      </c>
+      <c r="F45" s="4">
+        <v>43056</v>
+      </c>
+      <c r="G45" s="19">
+        <v>3</v>
+      </c>
+      <c r="H45" s="19">
+        <v>2</v>
+      </c>
+      <c r="I45" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J45" s="12">
+        <v>3</v>
+      </c>
+      <c r="K45" s="22">
+        <v>1</v>
+      </c>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="104"/>
@@ -16578,25 +16786,32 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="102">
-        <v>1</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D46" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E46" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E46" s="4">
+        <v>43063</v>
+      </c>
       <c r="F46" s="4"/>
-      <c r="G46" s="19"/>
+      <c r="G46" s="19">
+        <v>3</v>
+      </c>
       <c r="H46" s="19"/>
-      <c r="I46" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J46" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+      <c r="I46" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="J46" s="12">
+        <v>3</v>
       </c>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
@@ -16609,24 +16824,33 @@
       <c r="S46" s="22"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="16"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="102">
+        <v>3</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="D47" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E47" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E47" s="4">
+        <v>43063</v>
+      </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="19"/>
+      <c r="G47" s="19">
+        <v>3</v>
+      </c>
       <c r="H47" s="19"/>
-      <c r="I47" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J47" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+      <c r="I47" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="J47" s="12">
+        <v>3</v>
       </c>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
@@ -16639,24 +16863,33 @@
       <c r="S47" s="22"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="16"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="102">
+        <v>4</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D48" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E48" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E48" s="4">
+        <v>43074</v>
+      </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="19"/>
+      <c r="G48" s="19">
+        <v>3</v>
+      </c>
       <c r="H48" s="19"/>
-      <c r="I48" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J48" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+      <c r="I48" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="J48" s="12">
+        <v>3</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -16669,24 +16902,33 @@
       <c r="S48" s="22"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="16"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="102">
+        <v>5</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="D49" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E49" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E49" s="4">
+        <v>43074</v>
+      </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="19"/>
+      <c r="G49" s="19">
+        <v>3</v>
+      </c>
       <c r="H49" s="19"/>
-      <c r="I49" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J49" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+      <c r="I49" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="J49" s="12">
+        <v>3</v>
       </c>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
@@ -16699,24 +16941,22 @@
       <c r="S49" s="22"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="16"/>
-      <c r="B50" s="103" t="s">
-        <v>144</v>
-      </c>
+      <c r="A50" s="102"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J50" s="22"/>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J50" s="12"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
@@ -16728,30 +16968,24 @@
       <c r="S50" s="22"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="16">
-        <v>1</v>
-      </c>
-      <c r="B51" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>90</v>
-      </c>
+      <c r="A51" s="16"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="19">
-        <v>1</v>
-      </c>
+      <c r="G51" s="19"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="12">
-        <v>1</v>
-      </c>
-      <c r="J51" s="12">
-        <v>1</v>
+      <c r="I51" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J51" s="12" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
@@ -16764,30 +16998,26 @@
       <c r="S51" s="22"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="16">
-        <v>2</v>
-      </c>
-      <c r="B52" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>90</v>
-      </c>
+      <c r="A52" s="102"/>
+      <c r="B52" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="18"/>
       <c r="D52" s="12" t="str">
         <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="19">
-        <v>2</v>
-      </c>
+      <c r="G52" s="19"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="12">
-        <v>2</v>
-      </c>
-      <c r="J52" s="12">
-        <v>2</v>
+      <c r="I52" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J52" s="12" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
@@ -16800,30 +17030,26 @@
       <c r="S52" s="22"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="16">
-        <v>3</v>
-      </c>
-      <c r="B53" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>90</v>
-      </c>
+      <c r="A53" s="102">
+        <v>1</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="19">
-        <v>2</v>
-      </c>
+      <c r="G53" s="19"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="12">
-        <v>2</v>
-      </c>
-      <c r="J53" s="12">
-        <v>2</v>
+      <c r="I53" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J53" s="12" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
@@ -16836,30 +17062,24 @@
       <c r="S53" s="22"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="16">
-        <v>4</v>
-      </c>
-      <c r="B54" s="85" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>90</v>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="19">
-        <v>2</v>
-      </c>
+      <c r="G54" s="19"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="12">
-        <v>2</v>
-      </c>
-      <c r="J54" s="12">
-        <v>2</v>
+      <c r="I54" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J54" s="12" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
@@ -16872,30 +17092,24 @@
       <c r="S54" s="22"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="16">
-        <v>5</v>
-      </c>
-      <c r="B55" s="85" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>90</v>
-      </c>
+      <c r="A55" s="16"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="19">
-        <v>2</v>
-      </c>
+      <c r="G55" s="19"/>
       <c r="H55" s="19"/>
-      <c r="I55" s="12">
-        <v>2</v>
-      </c>
-      <c r="J55" s="12">
-        <v>2</v>
+      <c r="I55" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J55" s="12" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
@@ -16908,30 +17122,24 @@
       <c r="S55" s="22"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="16">
-        <v>6</v>
-      </c>
-      <c r="B56" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>90</v>
-      </c>
+      <c r="A56" s="16"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="19">
-        <v>2</v>
-      </c>
+      <c r="G56" s="19"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="12">
-        <v>2</v>
-      </c>
-      <c r="J56" s="12">
-        <v>2</v>
+      <c r="I56" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J56" s="12" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
@@ -16944,31 +17152,24 @@
       <c r="S56" s="22"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="16">
-        <v>7</v>
-      </c>
-      <c r="B57" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>90</v>
-      </c>
+      <c r="A57" s="16"/>
+      <c r="B57" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="18"/>
       <c r="D57" s="12" t="str">
         <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="19">
-        <v>1</v>
-      </c>
+      <c r="G57" s="19"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="12">
-        <v>1</v>
-      </c>
-      <c r="J57" s="12">
-        <v>1</v>
-      </c>
+      <c r="I57" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J57" s="22"/>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
@@ -16981,10 +17182,10 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>90</v>
@@ -17000,6 +17201,7 @@
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J58" s="12">
@@ -17017,10 +17219,10 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B59" s="85" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>90</v>
@@ -17032,14 +17234,15 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="12">
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="J59" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
@@ -17053,23 +17256,31 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="16">
-        <v>10</v>
-      </c>
-      <c r="B60" s="85"/>
-      <c r="C60" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="B60" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="D60" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="19"/>
+      <c r="G60" s="19">
+        <v>2</v>
+      </c>
       <c r="H60" s="19"/>
-      <c r="I60" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J60" s="22"/>
+      <c r="I60" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J60" s="12">
+        <v>2</v>
+      </c>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
@@ -17082,10 +17293,10 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="16">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>90</v>
@@ -17097,14 +17308,15 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="12">
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="J61" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
@@ -17118,10 +17330,10 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="16">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B62" s="85" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>90</v>
@@ -17133,14 +17345,15 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="12">
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="J62" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
@@ -17154,10 +17367,10 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="16">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B63" s="85" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>90</v>
@@ -17169,14 +17382,15 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="12">
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="J63" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
@@ -17190,10 +17404,10 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B64" s="85" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>90</v>
@@ -17209,6 +17423,7 @@
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J64" s="12">
@@ -17226,20 +17441,31 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="16">
-        <v>15</v>
-      </c>
-      <c r="B65" s="85"/>
-      <c r="C65" s="18"/>
+        <v>8</v>
+      </c>
+      <c r="B65" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="D65" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="19"/>
+      <c r="G65" s="19">
+        <v>1</v>
+      </c>
       <c r="H65" s="19"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
+      <c r="I65" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J65" s="12">
+        <v>1</v>
+      </c>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
@@ -17252,13 +17478,13 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="16">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B66" s="85" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D66" s="12" t="str">
         <f t="shared" si="1"/>
@@ -17271,6 +17497,7 @@
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J66" s="12">
@@ -17288,30 +17515,23 @@
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="16">
-        <v>17</v>
-      </c>
-      <c r="B67" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>135</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B67" s="85"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="19">
-        <v>1</v>
-      </c>
+      <c r="G67" s="19"/>
       <c r="H67" s="19"/>
-      <c r="I67" s="12">
-        <v>1</v>
-      </c>
-      <c r="J67" s="12">
-        <v>1</v>
-      </c>
+      <c r="I67" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J67" s="22"/>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
@@ -17324,13 +17544,13 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="16">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B68" s="85" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D68" s="12" t="str">
         <f t="shared" si="1"/>
@@ -17343,6 +17563,7 @@
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J68" s="12">
@@ -17360,13 +17581,13 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="16">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B69" s="85" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D69" s="12" t="str">
         <f t="shared" si="1"/>
@@ -17379,6 +17600,7 @@
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J69" s="12">
@@ -17396,13 +17618,13 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B70" s="85" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D70" s="12" t="str">
         <f t="shared" si="1"/>
@@ -17415,6 +17637,7 @@
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J70" s="12">
@@ -17432,20 +17655,31 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="16">
-        <v>21</v>
-      </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B71" s="85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="D71" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="19"/>
+      <c r="G71" s="19">
+        <v>1</v>
+      </c>
       <c r="H71" s="19"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
+      <c r="I71" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J71" s="12">
+        <v>1</v>
+      </c>
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
@@ -17458,30 +17692,23 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="16">
-        <v>22</v>
-      </c>
-      <c r="B72" s="85" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>135</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B72" s="85"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="19">
-        <v>1</v>
-      </c>
+      <c r="G72" s="19"/>
       <c r="H72" s="19"/>
-      <c r="I72" s="12">
-        <v>1</v>
-      </c>
-      <c r="J72" s="12">
-        <v>1</v>
-      </c>
+      <c r="I72" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J72" s="12"/>
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
@@ -17494,10 +17721,10 @@
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="16">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B73" s="85" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>135</v>
@@ -17513,6 +17740,7 @@
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J73" s="12">
@@ -17530,10 +17758,10 @@
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="16">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B74" s="85" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>135</v>
@@ -17549,6 +17777,7 @@
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J74" s="12">
@@ -17566,10 +17795,10 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="16">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B75" s="85" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>135</v>
@@ -17585,6 +17814,7 @@
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J75" s="12">
@@ -17602,10 +17832,10 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="16">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B76" s="85" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>135</v>
@@ -17621,6 +17851,7 @@
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J76" s="12">
@@ -17638,20 +17869,31 @@
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="16">
-        <v>27</v>
-      </c>
-      <c r="B77" s="85"/>
-      <c r="C77" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="B77" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D77" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="19"/>
+      <c r="G77" s="19">
+        <v>1</v>
+      </c>
       <c r="H77" s="19"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
+      <c r="I77" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J77" s="12">
+        <v>1</v>
+      </c>
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
@@ -17664,30 +17906,23 @@
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="16">
-        <v>28</v>
-      </c>
-      <c r="B78" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>135</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B78" s="85"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="19">
-        <v>1</v>
-      </c>
+      <c r="G78" s="19"/>
       <c r="H78" s="19"/>
-      <c r="I78" s="12">
-        <v>1</v>
-      </c>
-      <c r="J78" s="12">
-        <v>1</v>
-      </c>
+      <c r="I78" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J78" s="12"/>
       <c r="K78" s="22"/>
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
@@ -17700,10 +17935,10 @@
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="16">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B79" s="85" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>135</v>
@@ -17719,6 +17954,7 @@
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J79" s="12">
@@ -17736,10 +17972,10 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="16">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B80" s="85" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>135</v>
@@ -17755,6 +17991,7 @@
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J80" s="12">
@@ -17772,10 +18009,10 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="16">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B81" s="85" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>135</v>
@@ -17791,6 +18028,7 @@
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J81" s="12">
@@ -17808,10 +18046,10 @@
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="16">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B82" s="85" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>135</v>
@@ -17827,6 +18065,7 @@
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="12">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="J82" s="12">
@@ -17844,20 +18083,31 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="16">
-        <v>33</v>
-      </c>
-      <c r="B83" s="85"/>
-      <c r="C83" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="B83" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D83" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="19"/>
+      <c r="G83" s="19">
+        <v>1</v>
+      </c>
       <c r="H83" s="19"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
+      <c r="I83" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J83" s="12">
+        <v>1</v>
+      </c>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
@@ -17870,30 +18120,23 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="16">
-        <v>34</v>
-      </c>
-      <c r="B84" s="85" t="s">
-        <v>212</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>135</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B84" s="85"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="19">
-        <v>1</v>
-      </c>
+      <c r="G84" s="19"/>
       <c r="H84" s="19"/>
-      <c r="I84" s="12">
-        <v>1</v>
-      </c>
-      <c r="J84" s="12">
-        <v>1</v>
-      </c>
+      <c r="I84" s="12" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J84" s="12"/>
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
@@ -17906,10 +18149,10 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="16">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B85" s="85" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>135</v>
@@ -17925,6 +18168,7 @@
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="12">
+        <f t="shared" ref="I85:I134" ca="1" si="13">IF(ISBLANK(J85)=FALSE,OFFSET(I85,0,COUNTA(J85:Q85)),"")</f>
         <v>1</v>
       </c>
       <c r="J85" s="12">
@@ -17942,10 +18186,10 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="16">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B86" s="85" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>135</v>
@@ -17961,6 +18205,7 @@
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J86" s="12">
@@ -17978,10 +18223,10 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="16">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B87" s="85" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>135</v>
@@ -17997,6 +18242,7 @@
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J87" s="12">
@@ -18014,10 +18260,10 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="16">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B88" s="85" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>135</v>
@@ -18033,6 +18279,7 @@
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J88" s="12">
@@ -18050,20 +18297,31 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="16">
-        <v>39</v>
-      </c>
-      <c r="B89" s="85"/>
-      <c r="C89" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="B89" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D89" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="19"/>
+      <c r="G89" s="19">
+        <v>1</v>
+      </c>
       <c r="H89" s="19"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
+      <c r="I89" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J89" s="12">
+        <v>1</v>
+      </c>
       <c r="K89" s="22"/>
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
@@ -18076,30 +18334,23 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="16">
-        <v>40</v>
-      </c>
-      <c r="B90" s="85" t="s">
-        <v>217</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>135</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B90" s="85"/>
+      <c r="C90" s="18"/>
       <c r="D90" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="19">
-        <v>1</v>
-      </c>
+      <c r="G90" s="19"/>
       <c r="H90" s="19"/>
-      <c r="I90" s="12">
-        <v>1</v>
-      </c>
-      <c r="J90" s="12">
-        <v>1</v>
-      </c>
+      <c r="I90" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J90" s="12"/>
       <c r="K90" s="22"/>
       <c r="L90" s="22"/>
       <c r="M90" s="22"/>
@@ -18112,10 +18363,10 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="16">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B91" s="85" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>135</v>
@@ -18131,6 +18382,7 @@
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J91" s="12">
@@ -18148,10 +18400,10 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="16">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B92" s="85" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>135</v>
@@ -18167,6 +18419,7 @@
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J92" s="12">
@@ -18184,10 +18437,10 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="16">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B93" s="85" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>135</v>
@@ -18203,6 +18456,7 @@
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J93" s="12">
@@ -18220,10 +18474,10 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="16">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B94" s="85" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>135</v>
@@ -18239,6 +18493,7 @@
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J94" s="12">
@@ -18256,20 +18511,31 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="16">
-        <v>45</v>
-      </c>
-      <c r="B95" s="85"/>
-      <c r="C95" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="B95" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D95" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="19"/>
+      <c r="G95" s="19">
+        <v>1</v>
+      </c>
       <c r="H95" s="19"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
+      <c r="I95" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J95" s="12">
+        <v>1</v>
+      </c>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
@@ -18282,30 +18548,23 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="16">
-        <v>46</v>
-      </c>
-      <c r="B96" s="85" t="s">
-        <v>222</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>135</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B96" s="85"/>
+      <c r="C96" s="18"/>
       <c r="D96" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="19">
-        <v>1</v>
-      </c>
+      <c r="G96" s="19"/>
       <c r="H96" s="19"/>
-      <c r="I96" s="12">
-        <v>1</v>
-      </c>
-      <c r="J96" s="12">
-        <v>1</v>
-      </c>
+      <c r="I96" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J96" s="12"/>
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
@@ -18318,10 +18577,10 @@
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="16">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B97" s="85" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>135</v>
@@ -18337,6 +18596,7 @@
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J97" s="12">
@@ -18354,10 +18614,10 @@
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="16">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B98" s="85" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>135</v>
@@ -18373,6 +18633,7 @@
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J98" s="12">
@@ -18390,10 +18651,10 @@
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="16">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B99" s="85" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>135</v>
@@ -18409,6 +18670,7 @@
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J99" s="12">
@@ -18426,10 +18688,10 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="16">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B100" s="85" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>135</v>
@@ -18445,6 +18707,7 @@
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J100" s="12">
@@ -18462,20 +18725,31 @@
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="16">
-        <v>51</v>
-      </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="B101" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D101" s="12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="19"/>
+      <c r="G101" s="19">
+        <v>1</v>
+      </c>
       <c r="H101" s="19"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
+      <c r="I101" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J101" s="12">
+        <v>1</v>
+      </c>
       <c r="K101" s="22"/>
       <c r="L101" s="22"/>
       <c r="M101" s="22"/>
@@ -18488,30 +18762,23 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="16">
-        <v>52</v>
-      </c>
-      <c r="B102" s="85" t="s">
-        <v>227</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>135</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B102" s="85"/>
+      <c r="C102" s="18"/>
       <c r="D102" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="19">
-        <v>1</v>
-      </c>
+      <c r="G102" s="19"/>
       <c r="H102" s="19"/>
-      <c r="I102" s="12">
-        <v>1</v>
-      </c>
-      <c r="J102" s="12">
-        <v>1</v>
-      </c>
+      <c r="I102" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J102" s="12"/>
       <c r="K102" s="22"/>
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
@@ -18524,10 +18791,10 @@
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="16">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B103" s="85" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>135</v>
@@ -18543,6 +18810,7 @@
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J103" s="12">
@@ -18560,16 +18828,16 @@
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="16">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B104" s="85" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D104" s="12" t="str">
-        <f t="shared" ref="D104:D138" si="5">IF(ISBLANK($B104),"",IF(ISBLANK($F104),"未着手",IF($I104=0,"完了","作業中")))</f>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E104" s="4"/>
@@ -18579,6 +18847,7 @@
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J104" s="12">
@@ -18596,16 +18865,16 @@
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="16">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B105" s="85" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D105" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E105" s="4"/>
@@ -18615,6 +18884,7 @@
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J105" s="12">
@@ -18632,16 +18902,16 @@
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="16">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B106" s="85" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D106" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E106" s="4"/>
@@ -18651,6 +18921,7 @@
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J106" s="12">
@@ -18668,20 +18939,31 @@
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="16">
-        <v>57</v>
-      </c>
-      <c r="B107" s="85"/>
-      <c r="C107" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="B107" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D107" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="19"/>
+      <c r="G107" s="19">
+        <v>1</v>
+      </c>
       <c r="H107" s="19"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
+      <c r="I107" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J107" s="12">
+        <v>1</v>
+      </c>
       <c r="K107" s="22"/>
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
@@ -18694,30 +18976,23 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="16">
-        <v>58</v>
-      </c>
-      <c r="B108" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>143</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B108" s="85"/>
+      <c r="C108" s="18"/>
       <c r="D108" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="19">
-        <v>1</v>
-      </c>
+      <c r="G108" s="19"/>
       <c r="H108" s="19"/>
-      <c r="I108" s="12">
-        <v>1</v>
-      </c>
-      <c r="J108" s="12">
-        <v>1</v>
-      </c>
+      <c r="I108" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J108" s="12"/>
       <c r="K108" s="22"/>
       <c r="L108" s="22"/>
       <c r="M108" s="22"/>
@@ -18730,20 +19005,31 @@
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="16">
-        <v>59</v>
-      </c>
-      <c r="B109" s="85"/>
-      <c r="C109" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="B109" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D109" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="19"/>
+      <c r="G109" s="19">
+        <v>1</v>
+      </c>
       <c r="H109" s="19"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
+      <c r="I109" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J109" s="12">
+        <v>1</v>
+      </c>
       <c r="K109" s="22"/>
       <c r="L109" s="22"/>
       <c r="M109" s="22"/>
@@ -18756,16 +19042,16 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="16">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B110" s="85" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D110" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E110" s="4"/>
@@ -18775,6 +19061,7 @@
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J110" s="12">
@@ -18792,16 +19079,16 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="16">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B111" s="85" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D111" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D111:D145" si="14">IF(ISBLANK($B111),"",IF(ISBLANK($F111),"未着手",IF($I111=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E111" s="4"/>
@@ -18811,6 +19098,7 @@
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J111" s="12">
@@ -18828,16 +19116,16 @@
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="16">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B112" s="85" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D112" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E112" s="4"/>
@@ -18847,6 +19135,7 @@
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J112" s="12">
@@ -18864,16 +19153,16 @@
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="16">
-        <v>63</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>237</v>
+        <v>56</v>
+      </c>
+      <c r="B113" s="85" t="s">
+        <v>231</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D113" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E113" s="4"/>
@@ -18883,6 +19172,7 @@
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J113" s="12">
@@ -18900,30 +19190,23 @@
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="16">
-        <v>64</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>143</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B114" s="85"/>
+      <c r="C114" s="18"/>
       <c r="D114" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="19">
-        <v>1</v>
-      </c>
+      <c r="G114" s="19"/>
       <c r="H114" s="19"/>
-      <c r="I114" s="12">
-        <v>1</v>
-      </c>
-      <c r="J114" s="12">
-        <v>1</v>
-      </c>
+      <c r="I114" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J114" s="12"/>
       <c r="K114" s="22"/>
       <c r="L114" s="22"/>
       <c r="M114" s="22"/>
@@ -18936,20 +19219,31 @@
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="16">
-        <v>65</v>
-      </c>
-      <c r="B115" s="17"/>
-      <c r="C115" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="B115" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="D115" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>未着手</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="19"/>
+      <c r="G115" s="19">
+        <v>1</v>
+      </c>
       <c r="H115" s="19"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
+      <c r="I115" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J115" s="12">
+        <v>1</v>
+      </c>
       <c r="K115" s="22"/>
       <c r="L115" s="22"/>
       <c r="M115" s="22"/>
@@ -18962,30 +19256,23 @@
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="16">
-        <v>66</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>143</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B116" s="85"/>
+      <c r="C116" s="18"/>
       <c r="D116" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="19">
-        <v>1</v>
-      </c>
+      <c r="G116" s="19"/>
       <c r="H116" s="19"/>
-      <c r="I116" s="12">
-        <v>1</v>
-      </c>
-      <c r="J116" s="12">
-        <v>1</v>
-      </c>
+      <c r="I116" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J116" s="12"/>
       <c r="K116" s="22"/>
       <c r="L116" s="22"/>
       <c r="M116" s="22"/>
@@ -18998,16 +19285,16 @@
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="16">
-        <v>67</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>239</v>
+        <v>60</v>
+      </c>
+      <c r="B117" s="85" t="s">
+        <v>233</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D117" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E117" s="4"/>
@@ -19017,6 +19304,7 @@
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J117" s="12">
@@ -19034,20 +19322,31 @@
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="16">
-        <v>68</v>
-      </c>
-      <c r="B118" s="17"/>
-      <c r="C118" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="B118" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="D118" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>未着手</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="19"/>
+      <c r="G118" s="19">
+        <v>1</v>
+      </c>
       <c r="H118" s="19"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
+      <c r="I118" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J118" s="12">
+        <v>1</v>
+      </c>
       <c r="K118" s="22"/>
       <c r="L118" s="22"/>
       <c r="M118" s="22"/>
@@ -19060,16 +19359,16 @@
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="16">
-        <v>69</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>240</v>
+        <v>62</v>
+      </c>
+      <c r="B119" s="85" t="s">
+        <v>236</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D119" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E119" s="4"/>
@@ -19079,6 +19378,7 @@
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J119" s="12">
@@ -19096,20 +19396,31 @@
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="16">
-        <v>70</v>
-      </c>
-      <c r="B120" s="17"/>
-      <c r="C120" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="D120" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>未着手</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="19"/>
+      <c r="G120" s="19">
+        <v>1</v>
+      </c>
       <c r="H120" s="19"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
+      <c r="I120" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J120" s="12">
+        <v>1</v>
+      </c>
       <c r="K120" s="22"/>
       <c r="L120" s="22"/>
       <c r="M120" s="22"/>
@@ -19122,16 +19433,16 @@
     </row>
     <row r="121" spans="1:19">
       <c r="A121" s="16">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C121" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D121" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E121" s="4"/>
@@ -19141,6 +19452,7 @@
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J121" s="12">
@@ -19158,30 +19470,23 @@
     </row>
     <row r="122" spans="1:19">
       <c r="A122" s="16">
-        <v>72</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>143</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B122" s="17"/>
+      <c r="C122" s="18"/>
       <c r="D122" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="19">
-        <v>1</v>
-      </c>
+      <c r="G122" s="19"/>
       <c r="H122" s="19"/>
-      <c r="I122" s="12">
-        <v>1</v>
-      </c>
-      <c r="J122" s="12">
-        <v>1</v>
-      </c>
+      <c r="I122" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J122" s="12"/>
       <c r="K122" s="22"/>
       <c r="L122" s="22"/>
       <c r="M122" s="22"/>
@@ -19194,16 +19499,16 @@
     </row>
     <row r="123" spans="1:19">
       <c r="A123" s="16">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D123" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E123" s="4"/>
@@ -19213,6 +19518,7 @@
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J123" s="12">
@@ -19230,16 +19536,16 @@
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="16">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D124" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E124" s="4"/>
@@ -19249,6 +19555,7 @@
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J124" s="12">
@@ -19266,30 +19573,23 @@
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="16">
-        <v>75</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>143</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B125" s="17"/>
+      <c r="C125" s="18"/>
       <c r="D125" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="19">
-        <v>1</v>
-      </c>
+      <c r="G125" s="19"/>
       <c r="H125" s="19"/>
-      <c r="I125" s="12">
-        <v>1</v>
-      </c>
-      <c r="J125" s="12">
-        <v>1</v>
-      </c>
+      <c r="I125" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J125" s="12"/>
       <c r="K125" s="22"/>
       <c r="L125" s="22"/>
       <c r="M125" s="22"/>
@@ -19302,16 +19602,16 @@
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="16">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D126" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E126" s="4"/>
@@ -19321,6 +19621,7 @@
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="12">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="J126" s="12">
@@ -19337,11 +19638,13 @@
       <c r="S126" s="22"/>
     </row>
     <row r="127" spans="1:19">
-      <c r="A127" s="16"/>
+      <c r="A127" s="16">
+        <v>70</v>
+      </c>
       <c r="B127" s="17"/>
       <c r="C127" s="18"/>
       <c r="D127" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E127" s="4"/>
@@ -19349,10 +19652,10 @@
       <c r="G127" s="19"/>
       <c r="H127" s="19"/>
       <c r="I127" s="12" t="str">
-        <f t="shared" ref="I127:I138" ca="1" si="6">IF(ISBLANK(J127)=FALSE,OFFSET(I127,0,COUNTA(J127:Q127)),"")</f>
-        <v/>
-      </c>
-      <c r="J127" s="22"/>
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J127" s="12"/>
       <c r="K127" s="22"/>
       <c r="L127" s="22"/>
       <c r="M127" s="22"/>
@@ -19364,22 +19667,32 @@
       <c r="S127" s="22"/>
     </row>
     <row r="128" spans="1:19">
-      <c r="A128" s="16"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="18"/>
+      <c r="A128" s="16">
+        <v>71</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="D128" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>未着手</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="19"/>
+      <c r="G128" s="19">
+        <v>1</v>
+      </c>
       <c r="H128" s="19"/>
-      <c r="I128" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="J128" s="22"/>
+      <c r="I128" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J128" s="12">
+        <v>1</v>
+      </c>
       <c r="K128" s="22"/>
       <c r="L128" s="22"/>
       <c r="M128" s="22"/>
@@ -19390,23 +19703,33 @@
       <c r="R128" s="22"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:26">
-      <c r="A129" s="16"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="18"/>
+    <row r="129" spans="1:19">
+      <c r="A129" s="16">
+        <v>72</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="D129" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>未着手</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="19"/>
+      <c r="G129" s="19">
+        <v>1</v>
+      </c>
       <c r="H129" s="19"/>
-      <c r="I129" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="J129" s="22"/>
+      <c r="I129" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J129" s="12">
+        <v>1</v>
+      </c>
       <c r="K129" s="22"/>
       <c r="L129" s="22"/>
       <c r="M129" s="22"/>
@@ -19417,23 +19740,33 @@
       <c r="R129" s="22"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:26">
-      <c r="A130" s="16"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="18"/>
+    <row r="130" spans="1:19">
+      <c r="A130" s="16">
+        <v>73</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="D130" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>未着手</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="19"/>
+      <c r="G130" s="19">
+        <v>1</v>
+      </c>
       <c r="H130" s="19"/>
-      <c r="I130" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="J130" s="22"/>
+      <c r="I130" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J130" s="12">
+        <v>1</v>
+      </c>
       <c r="K130" s="22"/>
       <c r="L130" s="22"/>
       <c r="M130" s="22"/>
@@ -19444,23 +19777,33 @@
       <c r="R130" s="22"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:26">
-      <c r="A131" s="16"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="18"/>
+    <row r="131" spans="1:19">
+      <c r="A131" s="16">
+        <v>74</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="D131" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>未着手</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="19"/>
+      <c r="G131" s="19">
+        <v>1</v>
+      </c>
       <c r="H131" s="19"/>
-      <c r="I131" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="J131" s="22"/>
+      <c r="I131" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J131" s="12">
+        <v>1</v>
+      </c>
       <c r="K131" s="22"/>
       <c r="L131" s="22"/>
       <c r="M131" s="22"/>
@@ -19471,23 +19814,33 @@
       <c r="R131" s="22"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:26">
-      <c r="A132" s="16"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="18"/>
+    <row r="132" spans="1:19">
+      <c r="A132" s="16">
+        <v>75</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="D132" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>未着手</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="19"/>
+      <c r="G132" s="19">
+        <v>1</v>
+      </c>
       <c r="H132" s="19"/>
-      <c r="I132" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="J132" s="22"/>
+      <c r="I132" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J132" s="12">
+        <v>1</v>
+      </c>
       <c r="K132" s="22"/>
       <c r="L132" s="22"/>
       <c r="M132" s="22"/>
@@ -19498,23 +19851,33 @@
       <c r="R132" s="22"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:26">
-      <c r="A133" s="16"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="18"/>
+    <row r="133" spans="1:19">
+      <c r="A133" s="16">
+        <v>76</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="D133" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>未着手</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="19"/>
+      <c r="G133" s="19">
+        <v>1</v>
+      </c>
       <c r="H133" s="19"/>
-      <c r="I133" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="J133" s="22"/>
+      <c r="I133" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J133" s="12">
+        <v>1</v>
+      </c>
       <c r="K133" s="22"/>
       <c r="L133" s="22"/>
       <c r="M133" s="22"/>
@@ -19525,12 +19888,12 @@
       <c r="R133" s="22"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:19">
       <c r="A134" s="16"/>
       <c r="B134" s="17"/>
       <c r="C134" s="18"/>
       <c r="D134" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E134" s="4"/>
@@ -19538,7 +19901,7 @@
       <c r="G134" s="19"/>
       <c r="H134" s="19"/>
       <c r="I134" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="J134" s="22"/>
@@ -19552,12 +19915,12 @@
       <c r="R134" s="22"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:19">
       <c r="A135" s="16"/>
       <c r="B135" s="17"/>
       <c r="C135" s="18"/>
       <c r="D135" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E135" s="4"/>
@@ -19565,7 +19928,7 @@
       <c r="G135" s="19"/>
       <c r="H135" s="19"/>
       <c r="I135" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="I134:I145" ca="1" si="15">IF(ISBLANK(J135)=FALSE,OFFSET(I135,0,COUNTA(J135:Q135)),"")</f>
         <v/>
       </c>
       <c r="J135" s="22"/>
@@ -19579,12 +19942,12 @@
       <c r="R135" s="22"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:19">
       <c r="A136" s="16"/>
       <c r="B136" s="17"/>
       <c r="C136" s="18"/>
       <c r="D136" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E136" s="4"/>
@@ -19592,7 +19955,7 @@
       <c r="G136" s="19"/>
       <c r="H136" s="19"/>
       <c r="I136" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J136" s="22"/>
@@ -19606,12 +19969,12 @@
       <c r="R136" s="22"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:19">
       <c r="A137" s="16"/>
       <c r="B137" s="17"/>
       <c r="C137" s="18"/>
       <c r="D137" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E137" s="4"/>
@@ -19619,7 +19982,7 @@
       <c r="G137" s="19"/>
       <c r="H137" s="19"/>
       <c r="I137" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J137" s="22"/>
@@ -19633,12 +19996,12 @@
       <c r="R137" s="22"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:19">
       <c r="A138" s="16"/>
       <c r="B138" s="17"/>
       <c r="C138" s="18"/>
       <c r="D138" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E138" s="4"/>
@@ -19646,7 +20009,7 @@
       <c r="G138" s="19"/>
       <c r="H138" s="19"/>
       <c r="I138" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J138" s="22"/>
@@ -19660,218 +20023,196 @@
       <c r="R138" s="22"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:26" ht="10.5" customHeight="1">
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
-      <c r="N139" s="105"/>
-      <c r="O139" s="6"/>
-      <c r="P139" s="6"/>
-      <c r="Q139" s="6"/>
-      <c r="R139" s="6"/>
-      <c r="S139" s="6"/>
-    </row>
-    <row r="140" spans="1:26">
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="105"/>
-      <c r="O140" s="6"/>
-      <c r="P140" s="6"/>
-      <c r="Q140" s="6"/>
-      <c r="R140" s="6"/>
-      <c r="S140" s="6"/>
-      <c r="U140" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="V140" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="W140" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X140" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y140" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z140" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:26">
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="105"/>
-      <c r="O141" s="6"/>
-      <c r="P141" s="6"/>
-      <c r="Q141" s="6"/>
-      <c r="R141" s="6"/>
-      <c r="S141" s="6"/>
-      <c r="U141" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="V141" s="10">
-        <f t="shared" ref="V141:V150" si="7">SUMIF($C$5:$C$138,U141,$G$5:$G$138)</f>
-        <v>64</v>
-      </c>
-      <c r="W141" s="10">
-        <f t="shared" ref="W141:W150" si="8">SUMIF($C$5:$C$138,U141,$I$5:$I$138)</f>
-        <v>64</v>
-      </c>
-      <c r="X141" s="10">
-        <f t="shared" ref="X141:X150" si="9">SUMIF($C$5:$C$138,U141,$H$5:$H$138)</f>
-        <v>0</v>
-      </c>
-      <c r="Y141" s="14">
-        <f t="shared" ref="Y141:Y150" ca="1" si="10">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
-        <v>54</v>
-      </c>
-      <c r="Z141" s="15">
-        <f ca="1">IF(Y141&gt;W141,0,W141-Y141)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:26">
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
-      <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
-      <c r="N142" s="105"/>
-      <c r="O142" s="6"/>
-      <c r="P142" s="6"/>
-      <c r="Q142" s="6"/>
-      <c r="R142" s="6"/>
-      <c r="S142" s="6"/>
-      <c r="U142" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="V142" s="10">
-        <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-      <c r="W142" s="10">
-        <f t="shared" ca="1" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="X142" s="10">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="Y142" s="14">
-        <f t="shared" ca="1" si="10"/>
-        <v>54</v>
-      </c>
-      <c r="Z142" s="15">
-        <f t="shared" ref="Z142:Z150" ca="1" si="11">IF(Y142&gt;W142,0,W142-Y142)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:26">
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
-      <c r="N143" s="105"/>
-      <c r="O143" s="6"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="6"/>
-      <c r="R143" s="6"/>
-      <c r="S143" s="6"/>
-      <c r="U143" s="11"/>
-      <c r="V143" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W143" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X143" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y143" s="14">
-        <f t="shared" ca="1" si="10"/>
-        <v>54</v>
-      </c>
-      <c r="Z143" s="15">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:26">
-      <c r="J144" s="6"/>
-      <c r="K144" s="6"/>
-      <c r="L144" s="6"/>
-      <c r="M144" s="6"/>
-      <c r="N144" s="105"/>
-      <c r="O144" s="6"/>
-      <c r="P144" s="6"/>
-      <c r="Q144" s="6"/>
-      <c r="R144" s="6"/>
-      <c r="S144" s="6"/>
-      <c r="U144" s="11"/>
-      <c r="V144" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W144" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X144" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y144" s="14">
-        <f t="shared" ca="1" si="10"/>
-        <v>54</v>
-      </c>
-      <c r="Z144" s="15">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="10:26">
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="105"/>
-      <c r="O145" s="6"/>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="6"/>
-      <c r="R145" s="6"/>
-      <c r="S145" s="6"/>
-      <c r="U145" s="11"/>
-      <c r="V145" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W145" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X145" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y145" s="14">
-        <f t="shared" ca="1" si="10"/>
-        <v>54</v>
-      </c>
-      <c r="Z145" s="15">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="10:26">
+    <row r="139" spans="1:19">
+      <c r="A139" s="16"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J139" s="22"/>
+      <c r="K139" s="22"/>
+      <c r="L139" s="22"/>
+      <c r="M139" s="22"/>
+      <c r="N139" s="104"/>
+      <c r="O139" s="22"/>
+      <c r="P139" s="22"/>
+      <c r="Q139" s="22"/>
+      <c r="R139" s="22"/>
+      <c r="S139" s="22"/>
+    </row>
+    <row r="140" spans="1:19">
+      <c r="A140" s="16"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J140" s="22"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="22"/>
+      <c r="M140" s="22"/>
+      <c r="N140" s="104"/>
+      <c r="O140" s="22"/>
+      <c r="P140" s="22"/>
+      <c r="Q140" s="22"/>
+      <c r="R140" s="22"/>
+      <c r="S140" s="22"/>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="A141" s="16"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J141" s="22"/>
+      <c r="K141" s="22"/>
+      <c r="L141" s="22"/>
+      <c r="M141" s="22"/>
+      <c r="N141" s="104"/>
+      <c r="O141" s="22"/>
+      <c r="P141" s="22"/>
+      <c r="Q141" s="22"/>
+      <c r="R141" s="22"/>
+      <c r="S141" s="22"/>
+    </row>
+    <row r="142" spans="1:19">
+      <c r="A142" s="16"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J142" s="22"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="22"/>
+      <c r="N142" s="104"/>
+      <c r="O142" s="22"/>
+      <c r="P142" s="22"/>
+      <c r="Q142" s="22"/>
+      <c r="R142" s="22"/>
+      <c r="S142" s="22"/>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" s="16"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J143" s="22"/>
+      <c r="K143" s="22"/>
+      <c r="L143" s="22"/>
+      <c r="M143" s="22"/>
+      <c r="N143" s="104"/>
+      <c r="O143" s="22"/>
+      <c r="P143" s="22"/>
+      <c r="Q143" s="22"/>
+      <c r="R143" s="22"/>
+      <c r="S143" s="22"/>
+    </row>
+    <row r="144" spans="1:19">
+      <c r="A144" s="16"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J144" s="22"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="22"/>
+      <c r="N144" s="104"/>
+      <c r="O144" s="22"/>
+      <c r="P144" s="22"/>
+      <c r="Q144" s="22"/>
+      <c r="R144" s="22"/>
+      <c r="S144" s="22"/>
+    </row>
+    <row r="145" spans="1:26">
+      <c r="A145" s="16"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J145" s="22"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="22"/>
+      <c r="N145" s="104"/>
+      <c r="O145" s="22"/>
+      <c r="P145" s="22"/>
+      <c r="Q145" s="22"/>
+      <c r="R145" s="22"/>
+      <c r="S145" s="22"/>
+    </row>
+    <row r="146" spans="1:26" ht="10.5" customHeight="1">
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
@@ -19882,29 +20223,8 @@
       <c r="Q146" s="6"/>
       <c r="R146" s="6"/>
       <c r="S146" s="6"/>
-      <c r="U146" s="11"/>
-      <c r="V146" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W146" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X146" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y146" s="14">
-        <f t="shared" ca="1" si="10"/>
-        <v>54</v>
-      </c>
-      <c r="Z146" s="15">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="10:26">
+    </row>
+    <row r="147" spans="1:26">
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
@@ -19915,29 +20235,26 @@
       <c r="Q147" s="6"/>
       <c r="R147" s="6"/>
       <c r="S147" s="6"/>
-      <c r="U147" s="11"/>
-      <c r="V147" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W147" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X147" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y147" s="14">
-        <f t="shared" ca="1" si="10"/>
-        <v>54</v>
-      </c>
-      <c r="Z147" s="15">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="10:26">
+      <c r="U147" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="V147" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W147" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X147" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y147" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z147" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26">
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
@@ -19948,29 +20265,31 @@
       <c r="Q148" s="6"/>
       <c r="R148" s="6"/>
       <c r="S148" s="6"/>
-      <c r="U148" s="11"/>
+      <c r="U148" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="V148" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="V148:V157" si="16">SUMIF($C$5:$C$145,U148,$G$5:$G$145)</f>
+        <v>66</v>
       </c>
       <c r="W148" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="W148:W157" ca="1" si="17">SUMIF($C$5:$C$145,U148,$I$5:$I$145)</f>
+        <v>60</v>
       </c>
       <c r="X148" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="X148:X157" si="18">SUMIF($C$5:$C$145,U148,$H$5:$H$145)</f>
+        <v>7</v>
       </c>
       <c r="Y148" s="14">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="Y148:Y157" ca="1" si="19">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
         <v>54</v>
       </c>
       <c r="Z148" s="15">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="10:26">
+        <f ca="1">IF(Y148&gt;W148,0,W148-Y148)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26">
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
@@ -19981,29 +20300,31 @@
       <c r="Q149" s="6"/>
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
-      <c r="U149" s="11"/>
+      <c r="U149" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="V149" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>64</v>
       </c>
       <c r="W149" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>58</v>
       </c>
       <c r="X149" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>7</v>
       </c>
       <c r="Y149" s="14">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>54</v>
       </c>
       <c r="Z149" s="15">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="10:26">
+        <f t="shared" ref="Z149:Z157" ca="1" si="20">IF(Y149&gt;W149,0,W149-Y149)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26">
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
@@ -20016,27 +20337,27 @@
       <c r="S150" s="6"/>
       <c r="U150" s="11"/>
       <c r="V150" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W150" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X150" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y150" s="14">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>54</v>
       </c>
       <c r="Z150" s="15">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="10:26">
+    <row r="151" spans="1:26">
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
@@ -20047,8 +20368,29 @@
       <c r="Q151" s="6"/>
       <c r="R151" s="6"/>
       <c r="S151" s="6"/>
-    </row>
-    <row r="152" spans="10:26">
+      <c r="U151" s="11"/>
+      <c r="V151" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W151" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X151" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y151" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="Z151" s="15">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26">
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
@@ -20059,8 +20401,29 @@
       <c r="Q152" s="6"/>
       <c r="R152" s="6"/>
       <c r="S152" s="6"/>
-    </row>
-    <row r="153" spans="10:26">
+      <c r="U152" s="11"/>
+      <c r="V152" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W152" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X152" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y152" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="Z152" s="15">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26">
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
@@ -20071,8 +20434,29 @@
       <c r="Q153" s="6"/>
       <c r="R153" s="6"/>
       <c r="S153" s="6"/>
-    </row>
-    <row r="154" spans="10:26">
+      <c r="U153" s="11"/>
+      <c r="V153" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W153" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X153" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y153" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="Z153" s="15">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26">
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
@@ -20083,8 +20467,29 @@
       <c r="Q154" s="6"/>
       <c r="R154" s="6"/>
       <c r="S154" s="6"/>
-    </row>
-    <row r="155" spans="10:26">
+      <c r="U154" s="11"/>
+      <c r="V154" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W154" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X154" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y154" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="Z154" s="15">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26">
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
@@ -20095,8 +20500,29 @@
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>
       <c r="S155" s="6"/>
-    </row>
-    <row r="156" spans="10:26">
+      <c r="U155" s="11"/>
+      <c r="V155" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W155" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X155" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y155" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="Z155" s="15">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26">
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
@@ -20107,8 +20533,29 @@
       <c r="Q156" s="6"/>
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
-    </row>
-    <row r="157" spans="10:26">
+      <c r="U156" s="11"/>
+      <c r="V156" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W156" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X156" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y156" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="Z156" s="15">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26">
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
@@ -20119,8 +20566,29 @@
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
       <c r="S157" s="6"/>
-    </row>
-    <row r="158" spans="10:26">
+      <c r="U157" s="11"/>
+      <c r="V157" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W157" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X157" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y157" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="Z157" s="15">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26">
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
@@ -20132,7 +20600,7 @@
       <c r="R158" s="6"/>
       <c r="S158" s="6"/>
     </row>
-    <row r="159" spans="10:26">
+    <row r="159" spans="1:26">
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
@@ -20144,7 +20612,7 @@
       <c r="R159" s="6"/>
       <c r="S159" s="6"/>
     </row>
-    <row r="160" spans="10:26">
+    <row r="160" spans="1:26">
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
@@ -20899,6 +21367,90 @@
       <c r="Q222" s="6"/>
       <c r="R222" s="6"/>
       <c r="S222" s="6"/>
+    </row>
+    <row r="223" spans="10:19">
+      <c r="J223" s="6"/>
+      <c r="K223" s="6"/>
+      <c r="L223" s="6"/>
+      <c r="M223" s="6"/>
+      <c r="N223" s="105"/>
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
+      <c r="Q223" s="6"/>
+      <c r="R223" s="6"/>
+      <c r="S223" s="6"/>
+    </row>
+    <row r="224" spans="10:19">
+      <c r="J224" s="6"/>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
+      <c r="M224" s="6"/>
+      <c r="N224" s="105"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+      <c r="R224" s="6"/>
+      <c r="S224" s="6"/>
+    </row>
+    <row r="225" spans="10:19">
+      <c r="J225" s="6"/>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
+      <c r="M225" s="6"/>
+      <c r="N225" s="105"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+      <c r="Q225" s="6"/>
+      <c r="R225" s="6"/>
+      <c r="S225" s="6"/>
+    </row>
+    <row r="226" spans="10:19">
+      <c r="J226" s="6"/>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="6"/>
+      <c r="N226" s="105"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="6"/>
+    </row>
+    <row r="227" spans="10:19">
+      <c r="J227" s="6"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6"/>
+      <c r="N227" s="105"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+      <c r="Q227" s="6"/>
+      <c r="R227" s="6"/>
+      <c r="S227" s="6"/>
+    </row>
+    <row r="228" spans="10:19">
+      <c r="J228" s="6"/>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="6"/>
+      <c r="N228" s="105"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+      <c r="Q228" s="6"/>
+      <c r="R228" s="6"/>
+      <c r="S228" s="6"/>
+    </row>
+    <row r="229" spans="10:19">
+      <c r="J229" s="6"/>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="6"/>
+      <c r="N229" s="105"/>
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
+      <c r="Q229" s="6"/>
+      <c r="R229" s="6"/>
+      <c r="S229" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -20914,224 +21466,301 @@
     <mergeCell ref="F1:F4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="D139:D65570">
-    <cfRule type="expression" dxfId="77" priority="55" stopIfTrue="1">
-      <formula>D139="未着手"</formula>
+  <conditionalFormatting sqref="D146:D65577">
+    <cfRule type="expression" dxfId="98" priority="76" stopIfTrue="1">
+      <formula>D146="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="56" stopIfTrue="1">
-      <formula>D139="作業中"</formula>
+    <cfRule type="expression" dxfId="97" priority="77" stopIfTrue="1">
+      <formula>D146="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="57" stopIfTrue="1">
-      <formula>OR(D139="終了",D139="完了")</formula>
+    <cfRule type="expression" dxfId="96" priority="78" stopIfTrue="1">
+      <formula>OR(D146="終了",D146="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:I12 A36:I36 C13:I14 C45:I46 C7:C11 A47:I49 C6:XFD6 C37:I39 B39:B42 A44:I44 B40:J42 J44:XFD49 B43:XFD43 A50:XFD138 J12:XFD42 B15:I35">
-    <cfRule type="expression" dxfId="74" priority="58" stopIfTrue="1">
+  <conditionalFormatting sqref="A19:H19 A43:H43 C20:H21 C52:H53 C7:C11 C6:H6 C44:H46 B46:B49 A51:H51 B47:H50 A135:XFD145 B22:H42 A54:H134 J19:XFD134 J6:XFD6">
+    <cfRule type="expression" dxfId="95" priority="79" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="80" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="81" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B65570">
-    <cfRule type="expression" dxfId="71" priority="61" stopIfTrue="1">
-      <formula>D139="未着手"</formula>
+  <conditionalFormatting sqref="B146:B65577">
+    <cfRule type="expression" dxfId="92" priority="82" stopIfTrue="1">
+      <formula>D146="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="62" stopIfTrue="1">
-      <formula>D139="作業中"</formula>
+    <cfRule type="expression" dxfId="91" priority="83" stopIfTrue="1">
+      <formula>D146="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="63" stopIfTrue="1">
-      <formula>OR(D139="終了",D139="完了")</formula>
+    <cfRule type="expression" dxfId="90" priority="84" stopIfTrue="1">
+      <formula>OR(D146="終了",D146="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C139:C65570">
-    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
-      <formula>D139="未着手"</formula>
+  <conditionalFormatting sqref="C146:C65577">
+    <cfRule type="expression" dxfId="89" priority="85" stopIfTrue="1">
+      <formula>D146="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
-      <formula>D139="作業中"</formula>
+    <cfRule type="expression" dxfId="88" priority="86" stopIfTrue="1">
+      <formula>D146="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
-      <formula>OR(D139="終了",D139="完了")</formula>
+    <cfRule type="expression" dxfId="87" priority="87" stopIfTrue="1">
+      <formula>OR(D146="終了",D146="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E139:S65570">
-    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
-      <formula>$D139="未着手"</formula>
+  <conditionalFormatting sqref="E146:S65577">
+    <cfRule type="expression" dxfId="86" priority="88" stopIfTrue="1">
+      <formula>$D146="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
-      <formula>$D139="作業中"</formula>
+    <cfRule type="expression" dxfId="85" priority="89" stopIfTrue="1">
+      <formula>$D146="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="69" stopIfTrue="1">
-      <formula>OR($D139="終了",$D139="完了")</formula>
+    <cfRule type="expression" dxfId="84" priority="90" stopIfTrue="1">
+      <formula>OR($D146="終了",$D146="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="62" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="73" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="74" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="75" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B14 A15:A35">
-    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
-      <formula>$D13="未着手"</formula>
+  <conditionalFormatting sqref="A20:B21 A22:A42">
+    <cfRule type="expression" dxfId="80" priority="70" stopIfTrue="1">
+      <formula>$D20="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="50" stopIfTrue="1">
-      <formula>$D13="作業中"</formula>
+    <cfRule type="expression" dxfId="79" priority="71" stopIfTrue="1">
+      <formula>$D20="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="51" stopIfTrue="1">
-      <formula>OR($D13="終了",$D13="完了")</formula>
+    <cfRule type="expression" dxfId="78" priority="72" stopIfTrue="1">
+      <formula>OR($D20="終了",$D20="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B38 A39:A43">
-    <cfRule type="expression" dxfId="56" priority="46" stopIfTrue="1">
-      <formula>$D37="未着手"</formula>
+  <conditionalFormatting sqref="A44:B45 A46:A50">
+    <cfRule type="expression" dxfId="77" priority="67" stopIfTrue="1">
+      <formula>$D44="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="47" stopIfTrue="1">
-      <formula>$D37="作業中"</formula>
+    <cfRule type="expression" dxfId="76" priority="68" stopIfTrue="1">
+      <formula>$D44="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="48" stopIfTrue="1">
-      <formula>OR($D37="終了",$D37="完了")</formula>
+    <cfRule type="expression" dxfId="75" priority="69" stopIfTrue="1">
+      <formula>OR($D44="終了",$D44="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:B46">
-    <cfRule type="expression" dxfId="53" priority="43" stopIfTrue="1">
-      <formula>$D45="未着手"</formula>
+  <conditionalFormatting sqref="A52:B53">
+    <cfRule type="expression" dxfId="74" priority="64" stopIfTrue="1">
+      <formula>$D52="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="44" stopIfTrue="1">
-      <formula>$D45="作業中"</formula>
+    <cfRule type="expression" dxfId="73" priority="65" stopIfTrue="1">
+      <formula>$D52="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="45" stopIfTrue="1">
-      <formula>OR($D45="終了",$D45="完了")</formula>
+    <cfRule type="expression" dxfId="72" priority="66" stopIfTrue="1">
+      <formula>OR($D52="終了",$D52="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:XFD5">
-    <cfRule type="expression" dxfId="50" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:XFD5 I6:I134">
+    <cfRule type="expression" dxfId="71" priority="58" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="59" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="60" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:XFD7">
-    <cfRule type="expression" dxfId="47" priority="34" stopIfTrue="1">
+  <conditionalFormatting sqref="D7:H7 J7:XFD7">
+    <cfRule type="expression" dxfId="68" priority="55" stopIfTrue="1">
       <formula>$D7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="56" stopIfTrue="1">
       <formula>$D7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="57" stopIfTrue="1">
       <formula>OR($D7="終了",$D7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="44" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="52" stopIfTrue="1">
       <formula>$D7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="53" stopIfTrue="1">
       <formula>$D7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="54" stopIfTrue="1">
       <formula>OR($D7="終了",$D7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:XFD8">
-    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="D8:H8 J8:XFD8">
+    <cfRule type="expression" dxfId="62" priority="43" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="44" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="45" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="40" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="41" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="42" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:XFD11">
-    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="D11:H11 J11:XFD11">
+    <cfRule type="expression" dxfId="56" priority="37" stopIfTrue="1">
       <formula>$D11="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="38" stopIfTrue="1">
       <formula>$D11="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="39" stopIfTrue="1">
       <formula>OR($D11="終了",$D11="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11">
-    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="34" stopIfTrue="1">
       <formula>$D11="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="35" stopIfTrue="1">
       <formula>$D11="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="36" stopIfTrue="1">
       <formula>OR($D11="終了",$D11="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:XFD9">
-    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="D9:H9 J9:XFD9">
+    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
       <formula>$D9="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
       <formula>$D9="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
       <formula>OR($D9="終了",$D9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:B9">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
       <formula>$D9="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="29" stopIfTrue="1">
       <formula>$D9="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="30" stopIfTrue="1">
       <formula>OR($D9="終了",$D9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:XFD10">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="D10:H10 J10:XFD10">
+    <cfRule type="expression" dxfId="44" priority="25" stopIfTrue="1">
       <formula>$D10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="26" stopIfTrue="1">
       <formula>$D10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="27" stopIfTrue="1">
       <formula>OR($D10="終了",$D10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
       <formula>$D10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
       <formula>$D10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
       <formula>OR($D10="終了",$D10="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:H18 J18:XFD18">
+    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
+      <formula>$D18="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
+      <formula>$D18="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
+      <formula>OR($D18="終了",$D18="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:H17 J17:XFD17">
+    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
+      <formula>$D17="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
+      <formula>$D17="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
+      <formula>OR($D17="終了",$D17="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:XFD16">
+    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
+      <formula>$D16="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
+      <formula>$D16="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
+      <formula>OR($D16="終了",$D16="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:XFD15">
+    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+      <formula>$D15="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
+      <formula>$D15="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+      <formula>OR($D15="終了",$D15="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:XFD14">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+      <formula>$D14="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+      <formula>$D14="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+      <formula>OR($D14="終了",$D14="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:H13 J13:XFD13">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+      <formula>$D13="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+      <formula>$D13="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+      <formula>OR($D13="終了",$D13="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:H12 J12:XFD12">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>$D12="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$D12="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>OR($D12="終了",$D12="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -21150,21 +21779,21 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="6.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
-    <col min="10" max="13" width="4.75" style="7" customWidth="1"/>
-    <col min="14" max="16" width="4.625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="2.875" customWidth="1"/>
-    <col min="28" max="28" width="14.25" customWidth="1"/>
-    <col min="29" max="29" width="4.75" customWidth="1"/>
-    <col min="30" max="30" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.88671875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="6.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
+    <col min="10" max="13" width="4.77734375" style="7" customWidth="1"/>
+    <col min="14" max="16" width="4.6640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="2.88671875" customWidth="1"/>
+    <col min="28" max="28" width="14.21875" customWidth="1"/>
+    <col min="29" max="29" width="4.77734375" customWidth="1"/>
+    <col min="30" max="30" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
@@ -24678,57 +25307,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24748,30 +25377,30 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="26" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="26" customWidth="1"/>
     <col min="5" max="5" width="13" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="41.5" style="26" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="26" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="26" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="26" customWidth="1"/>
     <col min="12" max="12" width="9" style="26"/>
-    <col min="13" max="13" width="5.875" style="26" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="26" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="26" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="26" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="26" customWidth="1"/>
-    <col min="18" max="18" width="13.875" style="26" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" style="26" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="26" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" style="26" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="26" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="26" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" style="26" customWidth="1"/>
     <col min="19" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1">
+    <row r="1" spans="1:18" ht="13.8" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -24987,7 +25616,7 @@
       <c r="Q9" s="33"/>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickBot="1">
+    <row r="10" spans="1:18" ht="13.8" thickBot="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -25542,13 +26171,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25583,20 +26212,20 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -26898,5 +27527,6 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>